--- a/data/hotels_by_city/Houston/Houston_shard_659.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_659.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1416435-Reviews-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-By-Marriott-Houston-Intercontinental-Arpt.h2543912.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2620 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r581931733-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1416435</t>
+  </si>
+  <si>
+    <t>581931733</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Business Travel to Houston</t>
+  </si>
+  <si>
+    <t>I've been in this hotel for three night during a business trip. Very nice and clean, nice staff, large rooms with only one problem a very noisy air conditioner.Outisde a small swimming pool, and a barbeque area, typicall american breakfast. Hotel is located a few miles away from Houston airport, if you will be there for business is perfectMoreShow less</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>I've been in this hotel for three night during a business trip. Very nice and clean, nice staff, large rooms with only one problem a very noisy air conditioner.Outisde a small swimming pool, and a barbeque area, typicall american breakfast. Hotel is located a few miles away from Houston airport, if you will be there for business is perfectMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r572065613-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572065613</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great airport hotel</t>
+  </si>
+  <si>
+    <t>Located in 'a hide-away' small forest close to the airport.What is great is that there is a fuel ststion to fill your rental car, take-out restaurants and short drive to the airport for an early morning departure.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Located in 'a hide-away' small forest close to the airport.What is great is that there is a fuel ststion to fill your rental car, take-out restaurants and short drive to the airport for an early morning departure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r571555790-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571555790</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay, convienent location</t>
+  </si>
+  <si>
+    <t>This was a chance booking that we truly loved. We have stayed in Houston many times and we very pleased with this hotel. It is close to the airport but in a treed peaceful area with little noise and a walking path across the street. Each room has a full kitchen so you can cut the costs of eating out. Pool area is great with its own grill for your BBQ. Breakfast was good but not wow. Rooms are comfortable and bathrooms are large. Only thought is that there are no rooms with two beds. (each has a queen and pull out)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>This was a chance booking that we truly loved. We have stayed in Houston many times and we very pleased with this hotel. It is close to the airport but in a treed peaceful area with little noise and a walking path across the street. Each room has a full kitchen so you can cut the costs of eating out. Pool area is great with its own grill for your BBQ. Breakfast was good but not wow. Rooms are comfortable and bathrooms are large. Only thought is that there are no rooms with two beds. (each has a queen and pull out)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r564361519-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564361519</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Disappointment about "free parking"</t>
+  </si>
+  <si>
+    <t>We stayed there on Friday 2/23, hoping to leave our car for a week, only to find out Sat AM from Carlos that we'd have to pay a 3rd party web site to pay &amp; park there. Searched on the web site and found the cheapest place to park was at one of their competitors even closer to the airport.  I filled out an in-house survey from TPS and mentioned about the new parking policy and the GM responded with an e-mail telling me that I  was misinformed  Great news, but I was already out $40 and miles away.  If you register there, you should confirm that the front desk knows about the free parking policy of up to 7 days with a paid reservation  We like to stay here because they have clean rooms and good service with a shuttle to&amp;from  the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there on Friday 2/23, hoping to leave our car for a week, only to find out Sat AM from Carlos that we'd have to pay a 3rd party web site to pay &amp; park there. Searched on the web site and found the cheapest place to park was at one of their competitors even closer to the airport.  I filled out an in-house survey from TPS and mentioned about the new parking policy and the GM responded with an e-mail telling me that I  was misinformed  Great news, but I was already out $40 and miles away.  If you register there, you should confirm that the front desk knows about the free parking policy of up to 7 days with a paid reservation  We like to stay here because they have clean rooms and good service with a shuttle to&amp;from  the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r562517100-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562517100</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Excellent, friendly staff</t>
+  </si>
+  <si>
+    <t>Carlos, in particular, was extremely helpful is resolving an issue with room location, and should be commended. I have also found other staff members to be friendly and accommodating: Illiana, Rafael (transportation), Rafael (mtx), and housekeeping staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Carlos, in particular, was extremely helpful is resolving an issue with room location, and should be commended. I have also found other staff members to be friendly and accommodating: Illiana, Rafael (transportation), Rafael (mtx), and housekeeping staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r555862609-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555862609</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Very good, until...</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable location with friendly staff. As may be expected near an airport, there is occasional jet noise but it’s not excessive. My original room had a non-functioning refrigerator and there was no problem moving me to another room. My stay was very good, until I turned on the light during the night and was greeted by a very healthy cockroach running around the kitchen counter. I was checking out the next morning and reported it to front desk clerk who apologized and made a note. Hopefully they called an exterminator.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable location with friendly staff. As may be expected near an airport, there is occasional jet noise but it’s not excessive. My original room had a non-functioning refrigerator and there was no problem moving me to another room. My stay was very good, until I turned on the light during the night and was greeted by a very healthy cockroach running around the kitchen counter. I was checking out the next morning and reported it to front desk clerk who apologized and made a note. Hopefully they called an exterminator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r542452233-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542452233</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>great airport hotel</t>
+  </si>
+  <si>
+    <t>Clean and comfortable airport hotel.  Great staff, in particular Illiana at the front desk, Lisa in housekeeping, Raphael in maintenance, and the van drivers: Raphael, Eduardo, and Rodney.  Free breakfast, but if you want more, restaurants within walking distance. Frequent van service, friendly, courteous staff. Affordable.  Refrigerator, Microwave, utensils, plates, dishwasher.....all conveniences of home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable airport hotel.  Great staff, in particular Illiana at the front desk, Lisa in housekeeping, Raphael in maintenance, and the van drivers: Raphael, Eduardo, and Rodney.  Free breakfast, but if you want more, restaurants within walking distance. Frequent van service, friendly, courteous staff. Affordable.  Refrigerator, Microwave, utensils, plates, dishwasher.....all conveniences of home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r540284171-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540284171</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Great Extend Stay Hotel</t>
+  </si>
+  <si>
+    <t>Great Place if you want to be able to cook at hotel,  My room had full sized fridge 2 burner glass cook top, microwave and dishwasher. Hotel is near airport so there is some noise from airport, flights taper off from 11 pm til 530-6 am  but if you are on north side you will get some noise from airport. The breakfast is your standard fare  mostly sausage either patties or links and fridays it's BACON!!!!!  they've got  eggs, bagels and a  Texas shaped Waffle maker. they seem to be proud of their sausage, potato, green and red pepper onion mix  to make burritos with as it was offered the most.  the pool is outdoors and there is no hot tub.  had issues with accessing doors alot so if you can get on south side of building you will be in great shape as you can enter by front desk and this will be the quietest location. They were quick to address any issues I had as i was there for 5 weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Great Place if you want to be able to cook at hotel,  My room had full sized fridge 2 burner glass cook top, microwave and dishwasher. Hotel is near airport so there is some noise from airport, flights taper off from 11 pm til 530-6 am  but if you are on north side you will get some noise from airport. The breakfast is your standard fare  mostly sausage either patties or links and fridays it's BACON!!!!!  they've got  eggs, bagels and a  Texas shaped Waffle maker. they seem to be proud of their sausage, potato, green and red pepper onion mix  to make burritos with as it was offered the most.  the pool is outdoors and there is no hot tub.  had issues with accessing doors alot so if you can get on south side of building you will be in great shape as you can enter by front desk and this will be the quietest location. They were quick to address any issues I had as i was there for 5 weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r538588057-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538588057</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Best location of all hotels near the airport</t>
+  </si>
+  <si>
+    <t>Typical TownePlace Suites hotel. The best is that it is south of Beltway 8 in the middle of the woods. Really silent, lots of parking space, will receive packages with no charge. Milagros at the front desk is very friendly. There is a guy at the night shift who is always in a good mood. Breakfast is no good but it is as expected for the amount paid. I use it regularly for my business tripsMoreShow less</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Typical TownePlace Suites hotel. The best is that it is south of Beltway 8 in the middle of the woods. Really silent, lots of parking space, will receive packages with no charge. Milagros at the front desk is very friendly. There is a guy at the night shift who is always in a good mood. Breakfast is no good but it is as expected for the amount paid. I use it regularly for my business tripsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r527110101-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527110101</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Should be 10 Stars</t>
+  </si>
+  <si>
+    <t>This hotel was awesome from the quick and efficient check in from Tania to the wonderful breakfast and dinner that was included to the friendly airport transportation coordinators this really was a relaxing and enjoyable stay - they even assisted me with scanning some important documents that i needed to send.Would definitely stay here again next time I have a Houston layover, I normally stay at the Marriott inside the airport but I think I have found a new favorite.If i had to make 1 suggestion it would be to get some lighter weights in the gym as it appears that some have gone missing.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was awesome from the quick and efficient check in from Tania to the wonderful breakfast and dinner that was included to the friendly airport transportation coordinators this really was a relaxing and enjoyable stay - they even assisted me with scanning some important documents that i needed to send.Would definitely stay here again next time I have a Houston layover, I normally stay at the Marriott inside the airport but I think I have found a new favorite.If i had to make 1 suggestion it would be to get some lighter weights in the gym as it appears that some have gone missing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r518569926-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518569926</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Horrible Service.</t>
+  </si>
+  <si>
+    <t>I am writing this review not only as a Gold Elite Member but also as an Employee sibling. I had a reservation at this hotel  on August 9th before I traveled to Cabo for my birthday the next day. Upon a very late check in I presented my Explore Program Authorization form (for the discounted "Explore Rate"). The guy at the desk tells me that my form number is invalid. I explained to him I have used the form numerous times without any similar issue and was not even sure what that was. I then asked him if they could just verify the employee information listed on the form to verify that the person indeed works for Marriott and that I was a sibling and everything was legit. The employee was pretty rude and stated the only thing he could do was to book me at the regular rate. At that point I feel as if I am being accused of having a fraudulent form I was trying to pass off. And it basically came off as a take it or leave it kind of situation. After the way I was spoken to I realized I could not stay at this hotel and left.
+The following week when I returned home from my vacation I left a message for the manager at this property by the name of Donya Torres. She never returned my phone call. I have since used...I am writing this review not only as a Gold Elite Member but also as an Employee sibling. I had a reservation at this hotel  on August 9th before I traveled to Cabo for my birthday the next day. Upon a very late check in I presented my Explore Program Authorization form (for the discounted "Explore Rate"). The guy at the desk tells me that my form number is invalid. I explained to him I have used the form numerous times without any similar issue and was not even sure what that was. I then asked him if they could just verify the employee information listed on the form to verify that the person indeed works for Marriott and that I was a sibling and everything was legit. The employee was pretty rude and stated the only thing he could do was to book me at the regular rate. At that point I feel as if I am being accused of having a fraudulent form I was trying to pass off. And it basically came off as a take it or leave it kind of situation. After the way I was spoken to I realized I could not stay at this hotel and left.The following week when I returned home from my vacation I left a message for the manager at this property by the name of Donya Torres. She never returned my phone call. I have since used my form to receive discounts at other hotels without any issue at all. I do not recommend this hotel due to the lack of customer service and the lack of competence. There was no issue with the form I was using and this experience ended up costing me more money. I won't ever use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>I am writing this review not only as a Gold Elite Member but also as an Employee sibling. I had a reservation at this hotel  on August 9th before I traveled to Cabo for my birthday the next day. Upon a very late check in I presented my Explore Program Authorization form (for the discounted "Explore Rate"). The guy at the desk tells me that my form number is invalid. I explained to him I have used the form numerous times without any similar issue and was not even sure what that was. I then asked him if they could just verify the employee information listed on the form to verify that the person indeed works for Marriott and that I was a sibling and everything was legit. The employee was pretty rude and stated the only thing he could do was to book me at the regular rate. At that point I feel as if I am being accused of having a fraudulent form I was trying to pass off. And it basically came off as a take it or leave it kind of situation. After the way I was spoken to I realized I could not stay at this hotel and left.
+The following week when I returned home from my vacation I left a message for the manager at this property by the name of Donya Torres. She never returned my phone call. I have since used...I am writing this review not only as a Gold Elite Member but also as an Employee sibling. I had a reservation at this hotel  on August 9th before I traveled to Cabo for my birthday the next day. Upon a very late check in I presented my Explore Program Authorization form (for the discounted "Explore Rate"). The guy at the desk tells me that my form number is invalid. I explained to him I have used the form numerous times without any similar issue and was not even sure what that was. I then asked him if they could just verify the employee information listed on the form to verify that the person indeed works for Marriott and that I was a sibling and everything was legit. The employee was pretty rude and stated the only thing he could do was to book me at the regular rate. At that point I feel as if I am being accused of having a fraudulent form I was trying to pass off. And it basically came off as a take it or leave it kind of situation. After the way I was spoken to I realized I could not stay at this hotel and left.The following week when I returned home from my vacation I left a message for the manager at this property by the name of Donya Torres. She never returned my phone call. I have since used my form to receive discounts at other hotels without any issue at all. I do not recommend this hotel due to the lack of customer service and the lack of competence. There was no issue with the form I was using and this experience ended up costing me more money. I won't ever use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r505751031-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505751031</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Wish I could've stayed longer</t>
+  </si>
+  <si>
+    <t>I arrived late and departed early. Friendly, personable check in. Airport shuttle was excellent and the breakfast was perfect. I wish I had time to enjoy the pool and the other common spaces. Thank you, Townplace!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I arrived late and departed early. Friendly, personable check in. Airport shuttle was excellent and the breakfast was perfect. I wish I had time to enjoy the pool and the other common spaces. Thank you, Townplace!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r492269340-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492269340</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Memorial Day wknd</t>
+  </si>
+  <si>
+    <t>Not planning on being in Houston for Memorial Day, but I am sure we all have had those times when things just don't work out the way you plan! The property was exceptional! Beautiful room, full kitchen, sitting area and extremely comfortable bed! We were able to enjoy the pool and cooked on the grill in the evenings. Nice breakfast offered w room, yogurts, hot oatmeal and omelets. Not just the normal cereal, doughnuts and waffles. The staff was friendly and courteous. Definitely will return in future!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Not planning on being in Houston for Memorial Day, but I am sure we all have had those times when things just don't work out the way you plan! The property was exceptional! Beautiful room, full kitchen, sitting area and extremely comfortable bed! We were able to enjoy the pool and cooked on the grill in the evenings. Nice breakfast offered w room, yogurts, hot oatmeal and omelets. Not just the normal cereal, doughnuts and waffles. The staff was friendly and courteous. Definitely will return in future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r486400367-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486400367</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel close to airport</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable hotel with suites, including a little kitchen and fridge. Breakfast was included and was quite well assorted, although not the highest quality food. Free airport shuttle, just a little pricy. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable hotel with suites, including a little kitchen and fridge. Breakfast was included and was quite well assorted, although not the highest quality food. Free airport shuttle, just a little pricy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r480102071-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480102071</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Glad I chose this hotel!</t>
+  </si>
+  <si>
+    <t>I stayed a few nights here for business and was very happy with my stay.  The room was clean and spacious and had everything I needed.  It was close to the airport and close to the routes I needed to travel on so I didn't experience the bad traffic others had warned me about.  The breakfast was really nice.  It was quiet and peaceful and relaxing and a good place to do work.  I wouldn't mind a pool and hot tub, but everything else was perfect. The bed was comfortable, the bathroom had plenty of room and counter space. It was homey and like being in a house more than a hotel. I loved the full kitchen and nice couch and places to sit. I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2017</t>
+  </si>
+  <si>
+    <t>I stayed a few nights here for business and was very happy with my stay.  The room was clean and spacious and had everything I needed.  It was close to the airport and close to the routes I needed to travel on so I didn't experience the bad traffic others had warned me about.  The breakfast was really nice.  It was quiet and peaceful and relaxing and a good place to do work.  I wouldn't mind a pool and hot tub, but everything else was perfect. The bed was comfortable, the bathroom had plenty of room and counter space. It was homey and like being in a house more than a hotel. I loved the full kitchen and nice couch and places to sit. I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r473962225-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473962225</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>One Nite Stand</t>
+  </si>
+  <si>
+    <t>Great room near the IAH airport and very quiet. It sort of has a park atmosphere.  Easy to get to right off of Beltway 8 and I-69 north of Houston. I would recommend this hotel to travels who are using George Bush Intercontinental Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Great room near the IAH airport and very quiet. It sort of has a park atmosphere.  Easy to get to right off of Beltway 8 and I-69 north of Houston. I would recommend this hotel to travels who are using George Bush Intercontinental Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r472732833-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472732833</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Loud A/C, loud fridge, and old fuzzy sheets ruined a much needed night's sleep</t>
+  </si>
+  <si>
+    <t>We booked in right before an early morning flight.  The noises from the planes were no big deal right outside our window given the obnoxious sounds from our room appliances.  Everything was clean - and yet the sheets must have been washed with towels???  or just very old - pilled to every corner.  Call me Princess and the Pea - it was just awful....  Breakfast was the best part of the stay -MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>We booked in right before an early morning flight.  The noises from the planes were no big deal right outside our window given the obnoxious sounds from our room appliances.  Everything was clean - and yet the sheets must have been washed with towels???  or just very old - pilled to every corner.  Call me Princess and the Pea - it was just awful....  Breakfast was the best part of the stay -More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r469148743-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469148743</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great value - spacious room with ample amenities</t>
+  </si>
+  <si>
+    <t>This is a great property tucked away but not far from the airport and major freeways. I stayed 2 nights here and was very impressed. The suite was very spacious with plenty of convenient amenities - I particularly appreciated the full size fridge and microwave. The bed was comfy and the wi-fi was strong. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>This is a great property tucked away but not far from the airport and major freeways. I stayed 2 nights here and was very impressed. The suite was very spacious with plenty of convenient amenities - I particularly appreciated the full size fridge and microwave. The bed was comfy and the wi-fi was strong. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r463771976-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463771976</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Probably not</t>
+  </si>
+  <si>
+    <t>I spent one night here after arriving on a late flight. I smelled marijuana throughout the hallways on the way to my room, but hoped for no residual smell in the room. When I first entered the room, it was ok. The bathroom was honestly the cleanest I have seen in many travels, but after a few minutes the heavy scent of pot was coming in under my door. I called down to the front desk and no one answered. Because it was late and I didn't want the hassle of changing rooms, I tucked towels under the door, turned the AC on and the smell subsided. The general manager was extremely apologetic the next morning and comp'd my room stay which was quite generous. However, I probably wouldn't opt to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>I spent one night here after arriving on a late flight. I smelled marijuana throughout the hallways on the way to my room, but hoped for no residual smell in the room. When I first entered the room, it was ok. The bathroom was honestly the cleanest I have seen in many travels, but after a few minutes the heavy scent of pot was coming in under my door. I called down to the front desk and no one answered. Because it was late and I didn't want the hassle of changing rooms, I tucked towels under the door, turned the AC on and the smell subsided. The general manager was extremely apologetic the next morning and comp'd my room stay which was quite generous. However, I probably wouldn't opt to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r462506912-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462506912</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great stay just A/C was to noisy.</t>
+  </si>
+  <si>
+    <t>I stayed at townplace suites and the rooms are cery clean compfortable the only down size was that A/C was to load that couldn't sleep al night and had to turn it off and it was quit hot. Front desk agent Chad was very helpful and the shuttle drivers to the airport were amazing with the transportation services I will return next week and looking forward to staying with you guys agian I just need a quiter room with no a/c problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at townplace suites and the rooms are cery clean compfortable the only down size was that A/C was to load that couldn't sleep al night and had to turn it off and it was quit hot. Front desk agent Chad was very helpful and the shuttle drivers to the airport were amazing with the transportation services I will return next week and looking forward to staying with you guys agian I just need a quiter room with no a/c problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r462243401-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462243401</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Good choice near IAH</t>
+  </si>
+  <si>
+    <t>I needed a hotel for the night while passing through IAH and chose the TownePlace Suite.  It is close to the airport and has a shuttle.  It is typical of a TownePlace and you will not go wrong staying here.  The stay was friendly, the hotel clean and well maintained.  The only problem I had is that the bathtub bottom is very SLICK and you need to pay attention to not slip. This should be addressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>I needed a hotel for the night while passing through IAH and chose the TownePlace Suite.  It is close to the airport and has a shuttle.  It is typical of a TownePlace and you will not go wrong staying here.  The stay was friendly, the hotel clean and well maintained.  The only problem I had is that the bathtub bottom is very SLICK and you need to pay attention to not slip. This should be addressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r454752165-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454752165</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Outstanding!</t>
+  </si>
+  <si>
+    <t>We checked in late (after 10pm) and were greeted with a friendly smile and hello. Check in was a breeze and we were up to our room. The free breakfast was good and plentiful. Choice of eggs,  potatoes, sausage, cereals, muffins, waffles, fruits, yogurts, juice and milks. Each time we passed the front desk we were greeted with a Hello, how is your stay. Upon checkout the gentleman offered a late checkout due to a possible emergency i was having. He was very nice and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>We checked in late (after 10pm) and were greeted with a friendly smile and hello. Check in was a breeze and we were up to our room. The free breakfast was good and plentiful. Choice of eggs,  potatoes, sausage, cereals, muffins, waffles, fruits, yogurts, juice and milks. Each time we passed the front desk we were greeted with a Hello, how is your stay. Upon checkout the gentleman offered a late checkout due to a possible emergency i was having. He was very nice and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r453595786-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453595786</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Exactly what I expect from a TPS. Well done.</t>
+  </si>
+  <si>
+    <t>Well equipped room, quiet hotel, not too far from airport, staff was nice and competent. This is exactly what I expected from this hotel property and nice to see them delivering. Too often in recent times, I have been disappointed at Marriott properties. Glad this one was up to speed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Well equipped room, quiet hotel, not too far from airport, staff was nice and competent. This is exactly what I expected from this hotel property and nice to see them delivering. Too often in recent times, I have been disappointed at Marriott properties. Glad this one was up to speed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r446893836-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446893836</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Room was clean and had everything we needed for the night. Shuttle service was a bit questionable.  The front desk staff were fantastic!  They were very warm, welcoming and very helpful. Check in and out was totally painless. Great customer service, would stay here again because of that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean and had everything we needed for the night. Shuttle service was a bit questionable.  The front desk staff were fantastic!  They were very warm, welcoming and very helpful. Check in and out was totally painless. Great customer service, would stay here again because of that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r443281230-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443281230</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent option.</t>
+  </si>
+  <si>
+    <t>I recently stayed here for one night with a coworker. I found it's proximity to the airport where our meeting was perfect. The rooms very comfortable, the continental breakfast had just about something for everyone. Since this property is under the Marriott umbrella you can trust a certain level of service, but it's not prohibitively expensive. A cozy hotel. Would return. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dania T, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed here for one night with a coworker. I found it's proximity to the airport where our meeting was perfect. The rooms very comfortable, the continental breakfast had just about something for everyone. Since this property is under the Marriott umbrella you can trust a certain level of service, but it's not prohibitively expensive. A cozy hotel. Would return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r443105601-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443105601</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Best Choice in the Area</t>
+  </si>
+  <si>
+    <t>Have stayed at this location several times, and it is the best limited service hotel in the area. Grounds and building nicely maintained. Maids did a great job keeping the room clean. Common areas were clean and nicely decorated for Christmas. It is very convenient to get to the airport. It is also a great value- their rate is fabulous.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed at this location several times, and it is the best limited service hotel in the area. Grounds and building nicely maintained. Maids did a great job keeping the room clean. Common areas were clean and nicely decorated for Christmas. It is very convenient to get to the airport. It is also a great value- their rate is fabulous.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r440997235-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440997235</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with great service and value</t>
+  </si>
+  <si>
+    <t>My husband and I only spent 1 night here to wait for our flight the next day, but I wished we could have stayed longer. Everything was perfect, from the front desk, the room, the breakfast, to the shuttle to the airport. The front desk staff was welcoming and helpful. The room was spacious and included all the amenities you could need. The kitchen was well equipped. The closet was large, the living area was spacious, the bed was comfortable, and the bathroom was spotless. There are laundry room, pool, gym, and BBQ area on the premise. The hotel is within walking distance of Good Eats Gril, which is a nice restaurant with great service and good food for reasonable price, highly recommend. The free breakfast was way more superior than any other continental breakfasts I've ever had. A wide array of hot and cold food, there's something for every taste. The free shuttle to the airport was perfect for us: it left right on time, and the driver was very courteous to load and unload our heavy luggages. Overall I couldn't recommend this hotel highly enough. You will get your money's worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I only spent 1 night here to wait for our flight the next day, but I wished we could have stayed longer. Everything was perfect, from the front desk, the room, the breakfast, to the shuttle to the airport. The front desk staff was welcoming and helpful. The room was spacious and included all the amenities you could need. The kitchen was well equipped. The closet was large, the living area was spacious, the bed was comfortable, and the bathroom was spotless. There are laundry room, pool, gym, and BBQ area on the premise. The hotel is within walking distance of Good Eats Gril, which is a nice restaurant with great service and good food for reasonable price, highly recommend. The free breakfast was way more superior than any other continental breakfasts I've ever had. A wide array of hot and cold food, there's something for every taste. The free shuttle to the airport was perfect for us: it left right on time, and the driver was very courteous to load and unload our heavy luggages. Overall I couldn't recommend this hotel highly enough. You will get your money's worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r430325865-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430325865</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Very good choice for proximity to airport</t>
+  </si>
+  <si>
+    <t>Stayed here for one night during a layover for an international flight.  The hotel is about a 7 minute drive from IAH and is situated in a tucked away location away from the road.  The hotel has a shuttle that showed up within minutes of me calling from baggage claim.  During the shuttle operation hours, it departs either every 30 or 15 minutes from the hotel, depending on the day and time. The rooms appear to be newly renovated and are spacious.  After a long day of traveling, it was nice to see a smiling and friendly front desk agent.  The only restaurant, Good Eats, within easy walking distance is in the neighboring hotel.  There is no sidewalk, but you can walk down the driveway, take a right through a small patch of grass and into the parking lot of the adjacent hotel.  There are some microwave meals in the lobby available to purchase and heat up in your room.  The room is furnished with a fully function kitchen, targeted for long term visitors.  The hotel was a good balance of price and location if you want to be close to IAH.  The mattress was not the best I have slept on in a hotel, but not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night during a layover for an international flight.  The hotel is about a 7 minute drive from IAH and is situated in a tucked away location away from the road.  The hotel has a shuttle that showed up within minutes of me calling from baggage claim.  During the shuttle operation hours, it departs either every 30 or 15 minutes from the hotel, depending on the day and time. The rooms appear to be newly renovated and are spacious.  After a long day of traveling, it was nice to see a smiling and friendly front desk agent.  The only restaurant, Good Eats, within easy walking distance is in the neighboring hotel.  There is no sidewalk, but you can walk down the driveway, take a right through a small patch of grass and into the parking lot of the adjacent hotel.  There are some microwave meals in the lobby available to purchase and heat up in your room.  The room is furnished with a fully function kitchen, targeted for long term visitors.  The hotel was a good balance of price and location if you want to be close to IAH.  The mattress was not the best I have slept on in a hotel, but not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r427161765-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427161765</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Renovated Rooms</t>
+  </si>
+  <si>
+    <t>I have stayed here befor several times on buisness and was not ever impressed with the apearance of the rooms, I felt they were simply dated. During my current stay I was pleasantly surprised to see the rooms and lobby have been tastefully updated. Most important is the cleanliness of the hotel and politeness of the staff. Nice job Marriott! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here befor several times on buisness and was not ever impressed with the apearance of the rooms, I felt they were simply dated. During my current stay I was pleasantly surprised to see the rooms and lobby have been tastefully updated. Most important is the cleanliness of the hotel and politeness of the staff. Nice job Marriott! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r424197773-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424197773</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Spacious room</t>
+  </si>
+  <si>
+    <t>Room was fairly large and included a refrigerator and stove along with utensils.  Check in was easy and efficient.  The location is sort of away from most things, but quite.  On the down side no hot tub, bar and the on premise store is sparsely stocked.Room was both clean and comfortable, with an average shower.  Breakfast was outstanding with many choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Room was fairly large and included a refrigerator and stove along with utensils.  Check in was easy and efficient.  The location is sort of away from most things, but quite.  On the down side no hot tub, bar and the on premise store is sparsely stocked.Room was both clean and comfortable, with an average shower.  Breakfast was outstanding with many choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r417123135-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417123135</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean room, no hot water</t>
+  </si>
+  <si>
+    <t>I stayed here for a brief weekend Baseball trip. There are loads of positives about this hotel and I would definitely stay here again. The only negative is that I never had a hot shower. Or a warm shower. I told the front staff, and they were super apologetic and said on the second day that they did tell maintenance, who said a boiler was out but had then been fixed. No hot water the second morning either. 
+Positives: free shuttle to/from IAH and it's literally 5 minutes. We left this morning at 9:33 am and I was at my gate by 9:40. Just sayin'. The drivers both trips, as well as every staff I encountered at the hotel, were friendly and nice. The room wAs clean, bed was comfortable. As a rewards member, I received a little snack package upon arrival which was a pleasant surprise. The breakfast runs until 9:30 am and has eggs, some breakfast meat (different daily), A waffle maker that makes Texas shaped waffles (all hotels here seem to have this fun item), yogurt, cereal, fruit, and pastries. The coffee is tasty and there was an assortment of sweeteners  and creamers. The patio area, grill and pool area was clean and spacious, and tho I didn't use the fitness room this trip, it had a few machines and weights acceptable for a traveler. I would def stay here again and only rated my stay 4...I stayed here for a brief weekend Baseball trip. There are loads of positives about this hotel and I would definitely stay here again. The only negative is that I never had a hot shower. Or a warm shower. I told the front staff, and they were super apologetic and said on the second day that they did tell maintenance, who said a boiler was out but had then been fixed. No hot water the second morning either. Positives: free shuttle to/from IAH and it's literally 5 minutes. We left this morning at 9:33 am and I was at my gate by 9:40. Just sayin'. The drivers both trips, as well as every staff I encountered at the hotel, were friendly and nice. The room wAs clean, bed was comfortable. As a rewards member, I received a little snack package upon arrival which was a pleasant surprise. The breakfast runs until 9:30 am and has eggs, some breakfast meat (different daily), A waffle maker that makes Texas shaped waffles (all hotels here seem to have this fun item), yogurt, cereal, fruit, and pastries. The coffee is tasty and there was an assortment of sweeteners  and creamers. The patio area, grill and pool area was clean and spacious, and tho I didn't use the fitness room this trip, it had a few machines and weights acceptable for a traveler. I would def stay here again and only rated my stay 4 stars because of no hot water both nights. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a brief weekend Baseball trip. There are loads of positives about this hotel and I would definitely stay here again. The only negative is that I never had a hot shower. Or a warm shower. I told the front staff, and they were super apologetic and said on the second day that they did tell maintenance, who said a boiler was out but had then been fixed. No hot water the second morning either. 
+Positives: free shuttle to/from IAH and it's literally 5 minutes. We left this morning at 9:33 am and I was at my gate by 9:40. Just sayin'. The drivers both trips, as well as every staff I encountered at the hotel, were friendly and nice. The room wAs clean, bed was comfortable. As a rewards member, I received a little snack package upon arrival which was a pleasant surprise. The breakfast runs until 9:30 am and has eggs, some breakfast meat (different daily), A waffle maker that makes Texas shaped waffles (all hotels here seem to have this fun item), yogurt, cereal, fruit, and pastries. The coffee is tasty and there was an assortment of sweeteners  and creamers. The patio area, grill and pool area was clean and spacious, and tho I didn't use the fitness room this trip, it had a few machines and weights acceptable for a traveler. I would def stay here again and only rated my stay 4...I stayed here for a brief weekend Baseball trip. There are loads of positives about this hotel and I would definitely stay here again. The only negative is that I never had a hot shower. Or a warm shower. I told the front staff, and they were super apologetic and said on the second day that they did tell maintenance, who said a boiler was out but had then been fixed. No hot water the second morning either. Positives: free shuttle to/from IAH and it's literally 5 minutes. We left this morning at 9:33 am and I was at my gate by 9:40. Just sayin'. The drivers both trips, as well as every staff I encountered at the hotel, were friendly and nice. The room wAs clean, bed was comfortable. As a rewards member, I received a little snack package upon arrival which was a pleasant surprise. The breakfast runs until 9:30 am and has eggs, some breakfast meat (different daily), A waffle maker that makes Texas shaped waffles (all hotels here seem to have this fun item), yogurt, cereal, fruit, and pastries. The coffee is tasty and there was an assortment of sweeteners  and creamers. The patio area, grill and pool area was clean and spacious, and tho I didn't use the fitness room this trip, it had a few machines and weights acceptable for a traveler. I would def stay here again and only rated my stay 4 stars because of no hot water both nights. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r414514353-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414514353</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Perfect for a early am flight</t>
+  </si>
+  <si>
+    <t>This is the third time we have stayed at this property.  We live 45 min or so from IAH but of course never know what traffic might be.  So, we go down the night before, have a relaxing stay and take the shuttle to the airport in the morning.  The shuttle drivers are always prompt.  This is a beautiful property with spotless rooms.  We also usually take a small breakfast to cook as we leave before the breakfast is ready.  The attendant usually has something out early (as opposed to some places we have stayed that have nothing out and are actually late).  The rooms are tiny, but there is no wasted space with a full kitchen also.  You would never know you were so close to IAH as the grounds are beautiful also.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>This is the third time we have stayed at this property.  We live 45 min or so from IAH but of course never know what traffic might be.  So, we go down the night before, have a relaxing stay and take the shuttle to the airport in the morning.  The shuttle drivers are always prompt.  This is a beautiful property with spotless rooms.  We also usually take a small breakfast to cook as we leave before the breakfast is ready.  The attendant usually has something out early (as opposed to some places we have stayed that have nothing out and are actually late).  The rooms are tiny, but there is no wasted space with a full kitchen also.  You would never know you were so close to IAH as the grounds are beautiful also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r413152645-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413152645</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for a long connection</t>
+  </si>
+  <si>
+    <t>Had to stay in Houston because of connecting flights. Chose this hotel as it was really good value and I am also a member of Mariott Rewards programme. Although it's closed to the airport (10min by car/taxi), it's in a green area and there is absolutely no noise. Staff was friendly and there was a free shuttle back to the airport in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Had to stay in Houston because of connecting flights. Chose this hotel as it was really good value and I am also a member of Mariott Rewards programme. Although it's closed to the airport (10min by car/taxi), it's in a green area and there is absolutely no noise. Staff was friendly and there was a free shuttle back to the airport in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r400076645-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400076645</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Reliable</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel. The pillows are amazing, the bed is so comfortable and the staff is fabulous. Rooms and common areas are clean and neat. The location is conveniently located a mile away from the George Busch International Airport.  The shuttle is prompt and the drivers are pleasant and helpful. The breakfast is decent. The lobby is large and inviting. This hotel is pet friendly if your travel needs require and the location is surrounded by a trail to walk/jog as well. The fitness center is small with the minimum treadmill/elliptical machine and free weights, but is clean and available. There isn't much for quality restaurants near by but the typical fast food chains are within a mile. Within a 10 minute drive you have all the options you want. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel. The pillows are amazing, the bed is so comfortable and the staff is fabulous. Rooms and common areas are clean and neat. The location is conveniently located a mile away from the George Busch International Airport.  The shuttle is prompt and the drivers are pleasant and helpful. The breakfast is decent. The lobby is large and inviting. This hotel is pet friendly if your travel needs require and the location is surrounded by a trail to walk/jog as well. The fitness center is small with the minimum treadmill/elliptical machine and free weights, but is clean and available. There isn't much for quality restaurants near by but the typical fast food chains are within a mile. Within a 10 minute drive you have all the options you want. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r395233756-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395233756</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay, Especially If You're Flying Out of IAH</t>
+  </si>
+  <si>
+    <t>Stayed here one night for an early morning flight out of IAH. Great price ($70 per night!), great location (10 minutes from IAH), great accommodations (king bed with twin pull out sofa). Free shuttle to IAH and free parking! Breakfast was great. Also had an evening "meal" (taco salad) with lots of fresh ingredients!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here one night for an early morning flight out of IAH. Great price ($70 per night!), great location (10 minutes from IAH), great accommodations (king bed with twin pull out sofa). Free shuttle to IAH and free parking! Breakfast was great. Also had an evening "meal" (taco salad) with lots of fresh ingredients!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r392627770-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392627770</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Great clean rooms and service</t>
+  </si>
+  <si>
+    <t>Always friendly and a great place for friends and family to stay at if visiting you in The Woodlands, Conroe, or Spring area.  They have a free breakfast as well, which is always nice.  I've stayed here multiple times, even though I live in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Always friendly and a great place for friends and family to stay at if visiting you in The Woodlands, Conroe, or Spring area.  They have a free breakfast as well, which is always nice.  I've stayed here multiple times, even though I live in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r382156817-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382156817</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Everything You Need from a One-Night Stay</t>
+  </si>
+  <si>
+    <t>This hotel had everything I needed for a night stay. We picked up a family member from IAH and decided to stay the night in Houston. We found the location very convenient, the area very lovely decorated, the rooms very nice with kitchen, stove, microwave, large fridge (which helped us a lot since we had perishable items), and even kitchen utensils. The staff was courteous and fast, and the breakfast was good.The only problem I had was the constant noise coming from the restroom fan, probably coming from the adjacent room. But nothing very annoying. That is the only reason I am giving this facility 4 stars.Overall, great bangs for your bucks and a good place. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel had everything I needed for a night stay. We picked up a family member from IAH and decided to stay the night in Houston. We found the location very convenient, the area very lovely decorated, the rooms very nice with kitchen, stove, microwave, large fridge (which helped us a lot since we had perishable items), and even kitchen utensils. The staff was courteous and fast, and the breakfast was good.The only problem I had was the constant noise coming from the restroom fan, probably coming from the adjacent room. But nothing very annoying. That is the only reason I am giving this facility 4 stars.Overall, great bangs for your bucks and a good place. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r378543637-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378543637</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay when stuck at airport</t>
+  </si>
+  <si>
+    <t>My flight was diverted to Houston and delayed until morning. Hotel price was reasonable.  The hotel has a free shuttle that picks you up from the airport-you have to call the hotel to schedule the pickup. It runs from 5am to midnight. Very convenient.  Room was clean and had a kitchen--would have been great for a longer stay.  They have free breakfast. I left the hotel on the 530am shuttle and the front desk had made to-go breakfast bags. Nice staff. Would definitely recommend if you are stuck at the airport overnight. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>My flight was diverted to Houston and delayed until morning. Hotel price was reasonable.  The hotel has a free shuttle that picks you up from the airport-you have to call the hotel to schedule the pickup. It runs from 5am to midnight. Very convenient.  Room was clean and had a kitchen--would have been great for a longer stay.  They have free breakfast. I left the hotel on the 530am shuttle and the front desk had made to-go breakfast bags. Nice staff. Would definitely recommend if you are stuck at the airport overnight. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r377561165-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377561165</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Nearby airport option</t>
+  </si>
+  <si>
+    <t>Nice room setup. Mini kitchen including fridge, sink, stove, dishwasher. It even had dishes &amp; pots&amp; pans.Comfortable king bed. QuietFree breakfast. Waffles, eggs, cereal,fruit.  You could eat inside or on covered patio Nice outdoor pool Close to airportMoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Nice room setup. Mini kitchen including fridge, sink, stove, dishwasher. It even had dishes &amp; pots&amp; pans.Comfortable king bed. QuietFree breakfast. Waffles, eggs, cereal,fruit.  You could eat inside or on covered patio Nice outdoor pool Close to airportMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r374679700-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374679700</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Complimentary shuttle from the airport was appreciated after a long haul flight! The shuttle driver was very helpful, even taking me to my conference the following day. Reception staff were not overly friendly but I wouldn't say they were rude. The room was clean and tidy, very happy with the stay. Free wifi in the room and didn't have any issues with this. The TV was pretty small but not the end of the world! I had a room with a pool view and there were a few kids around who were quite noisy and ran up and down the hallway. At one stage there was a dog outside my room with the kids so not sure if this is a pet friendly hotel? I like dogs so didn't bother me it was just a first seeing a dog outside my hotel room!Breakfast was generous and fresh with a range of hot foods, pastries and continental items. Fresh fruit was also appreciated. All in all for the price it was an excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Complimentary shuttle from the airport was appreciated after a long haul flight! The shuttle driver was very helpful, even taking me to my conference the following day. Reception staff were not overly friendly but I wouldn't say they were rude. The room was clean and tidy, very happy with the stay. Free wifi in the room and didn't have any issues with this. The TV was pretty small but not the end of the world! I had a room with a pool view and there were a few kids around who were quite noisy and ran up and down the hallway. At one stage there was a dog outside my room with the kids so not sure if this is a pet friendly hotel? I like dogs so didn't bother me it was just a first seeing a dog outside my hotel room!Breakfast was generous and fresh with a range of hot foods, pastries and continental items. Fresh fruit was also appreciated. All in all for the price it was an excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r374096406-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374096406</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent property, clean room</t>
+  </si>
+  <si>
+    <t>This is an excellent property. I spent only 1 night in this hotel, and it was a wonderful experience. The staff here is very friendly and helpful. The lobby and property is well maintained, clean, and attractive. My room was spacious and clean. The bathroom is very clean and well lit. The kitchenette had a full-size refrigerator.  The internet speed is great. The breakfast is good. The bathroom was clean and included all the amenities I needed.  Breakfast included hot and cold items.  I enjoyed this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an excellent property. I spent only 1 night in this hotel, and it was a wonderful experience. The staff here is very friendly and helpful. The lobby and property is well maintained, clean, and attractive. My room was spacious and clean. The bathroom is very clean and well lit. The kitchenette had a full-size refrigerator.  The internet speed is great. The breakfast is good. The bathroom was clean and included all the amenities I needed.  Breakfast included hot and cold items.  I enjoyed this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r370231548-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370231548</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>very smooth check in , rooms were very nice and spacious, bed was super comfortable , breakfast was hot and multiple items to choose from. Night clerk was very friendly and attentive, the pool and pool area was really clean, no problems getting extra towels or linen from housekeeping, quiet on 2nd floor , AC worked great , the kitchen in room was great add on for me and my family to keep food cost at a minimal while on vacation, the hotel location was close to all the events for our family reunion, we were satisfied with the rate we paid for this hotel thru expediaMoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>very smooth check in , rooms were very nice and spacious, bed was super comfortable , breakfast was hot and multiple items to choose from. Night clerk was very friendly and attentive, the pool and pool area was really clean, no problems getting extra towels or linen from housekeeping, quiet on 2nd floor , AC worked great , the kitchen in room was great add on for me and my family to keep food cost at a minimal while on vacation, the hotel location was close to all the events for our family reunion, we were satisfied with the rate we paid for this hotel thru expediaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r361520688-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361520688</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Very good place for long term stay</t>
+  </si>
+  <si>
+    <t>I spent 6 nights at the TownePlace Suites. I was very pleased. Good bed, nice size of the room, good equipment in the kitchen area. It is quite good, if you have to stay in the airport area. However it is a bit far to the city center (around 30min). Room and bathroom were clean wifi is free. Breakfast buffet is sufficient and quality of food is ok. They serve dinner mon-wed included in the room rate. Gym is small but nice. Parking is free. Service staff is nice, friendly and helpful. Absolutely recommendable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>I spent 6 nights at the TownePlace Suites. I was very pleased. Good bed, nice size of the room, good equipment in the kitchen area. It is quite good, if you have to stay in the airport area. However it is a bit far to the city center (around 30min). Room and bathroom were clean wifi is free. Breakfast buffet is sufficient and quality of food is ok. They serve dinner mon-wed included in the room rate. Gym is small but nice. Parking is free. Service staff is nice, friendly and helpful. Absolutely recommendable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r358031685-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358031685</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel with awesome people.</t>
+  </si>
+  <si>
+    <t>As always another great stay at another Marriott property, I stayed here for almost a week. Extremely clean, convenient location hotel. If ever in the Houston area need a hotel near the airport. With a full kitchen I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>As always another great stay at another Marriott property, I stayed here for almost a week. Extremely clean, convenient location hotel. If ever in the Houston area need a hotel near the airport. With a full kitchen I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r357992114-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357992114</t>
+  </si>
+  <si>
+    <t>Stay before Cruise</t>
+  </si>
+  <si>
+    <t>Booked a cruise 2 days before departure and needed a hotel to stay at day before which was a Saturday night. First plus we got the hotel for $79 for a Saturday night didn't know what to expect. It's clean, updated, comfortable beds, nice pool and the people were so kind and helpful! Would stay here again and again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Booked a cruise 2 days before departure and needed a hotel to stay at day before which was a Saturday night. First plus we got the hotel for $79 for a Saturday night didn't know what to expect. It's clean, updated, comfortable beds, nice pool and the people were so kind and helpful! Would stay here again and again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r346358280-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346358280</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Nice Surprise!</t>
+  </si>
+  <si>
+    <t>My 2 week stay was as good as I could have possibly imagined.... Clean, quiet, with excellent staff.  Room is perfect to an extended stay with kitchenette and office/desk area.  Breakfasts were enjoyed daily, with evening meals a pleasant surprise.Will definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>My 2 week stay was as good as I could have possibly imagined.... Clean, quiet, with excellent staff.  Room is perfect to an extended stay with kitchenette and office/desk area.  Breakfasts were enjoyed daily, with evening meals a pleasant surprise.Will definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r343282058-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343282058</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed overnight as we were in transit.  Picked up by free airport shuttle and delivered to suites.  Very helpful and friendly staff.  Very clean and tidy room.  Breakfast the next morning was very good, simple, nothing fancy but all you need.  the only negative was we were on bottom floor and alot of noise from stomping feet upstairs.  but we would stay again in a heartbeat.  thanks great value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed overnight as we were in transit.  Picked up by free airport shuttle and delivered to suites.  Very helpful and friendly staff.  Very clean and tidy room.  Breakfast the next morning was very good, simple, nothing fancy but all you need.  the only negative was we were on bottom floor and alot of noise from stomping feet upstairs.  but we would stay again in a heartbeat.  thanks great value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r343043026-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343043026</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Good Layover Stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel with friendly staff.  Location is close to the airport and the shuttle service was convenient.  Rooms are clean and the property is very nice.  Not really near restaurants, but for a 1-2 night stay, it was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel with friendly staff.  Location is close to the airport and the shuttle service was convenient.  Rooms are clean and the property is very nice.  Not really near restaurants, but for a 1-2 night stay, it was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r339769674-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339769674</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Good price and close to the airport.</t>
+  </si>
+  <si>
+    <t>Even though we used our points and if we had to pay for it, it would been not too expensive.  They had free food and drinks, as well as breakfast.  Even though we there late, the staff went out of their way to get us some food.  The only issue was that the floors were too thin.  We were able to hear the people upstairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Even though we used our points and if we had to pay for it, it would been not too expensive.  They had free food and drinks, as well as breakfast.  Even though we there late, the staff went out of their way to get us some food.  The only issue was that the floors were too thin.  We were able to hear the people upstairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r339209827-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339209827</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable and quiet </t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel and would have given this hotel higher ratings if it weren't for the service I didn't receive.Upon check in everything was fine and the check in attendant (Andrew) stated he would help me unload some heavy items no problem. Well, when I needed his assistance he had a customer and he stated he would be with me after he was done. Well, I waited and waited I even came in to see that the attendant was done with the check in process and was just chit chatting. Here I was waiting for over 10 minutes, finally I just took all the heavy items off by myself and could not believe the lip service I received and not true service!Next it was the dirty sheets, I never got clean sheets, so I called the front desk and the young lady helped me place clean sheets on my bed. I just couldn't believe that lack of attention on the part of this Marriott property.Despite these things, the bed was comfortable, place was quiet. They had a laundry room too.I hope this property reads this review and improves their service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel and would have given this hotel higher ratings if it weren't for the service I didn't receive.Upon check in everything was fine and the check in attendant (Andrew) stated he would help me unload some heavy items no problem. Well, when I needed his assistance he had a customer and he stated he would be with me after he was done. Well, I waited and waited I even came in to see that the attendant was done with the check in process and was just chit chatting. Here I was waiting for over 10 minutes, finally I just took all the heavy items off by myself and could not believe the lip service I received and not true service!Next it was the dirty sheets, I never got clean sheets, so I called the front desk and the young lady helped me place clean sheets on my bed. I just couldn't believe that lack of attention on the part of this Marriott property.Despite these things, the bed was comfortable, place was quiet. They had a laundry room too.I hope this property reads this review and improves their service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r337653535-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337653535</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Excellence and Quality</t>
+  </si>
+  <si>
+    <t>This was an overnight stay prior to traveling back to Germany. Very Nice Hotel and the King Suite was awesome. It allowed my wife and I and good  nights rest before our flight home. The hotel staff were very friendly and helpful. The Breakfast was one of the best we have encountered at any hotel.We highly recommend!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>This was an overnight stay prior to traveling back to Germany. Very Nice Hotel and the King Suite was awesome. It allowed my wife and I and good  nights rest before our flight home. The hotel staff were very friendly and helpful. The Breakfast was one of the best we have encountered at any hotel.We highly recommend!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r330017784-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330017784</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We were only at the hotel for about 5 hours due to a delayed flight getting into IAH and a super early flight out the next morning.  
+For the money, this hotel is nice and clean and comfortable.  The bed is AWESOME.  SO comfy.  They have Paul Mitchell shampoo, conditioner and lotion in the bathroom.  Nice clean room with great kitchenette, desk, nice TV, couch.  Everything looked clean and modern.  Did I say the bed was super comfy already?  It was!!!
+We called upon arrival to IAH (11:30pm) for the shuttle and they said he would be there in 20-25 minutes and they were there in more like 10 minutes. The shuttle runs from 5am to midnight every day so if you are delayed past midnight, you would have to cab it.  We left the next morning on the 5am shuttle, you have to make reservations the night before, and we left at 5:05am and were at the airport by 5:10am.  The shuttle was full with guests from the hotel next door so make sure you make your reservation!!  
+Food options are slim if you get in late and have no car.  The hotel has some snacks for sale and there is a restaurant within walking distance, but we didn't want to walk there in the dark at that hour. It is called Good Eats and it looked fine, we were just tired and needed to get up so early....We were only at the hotel for about 5 hours due to a delayed flight getting into IAH and a super early flight out the next morning.  For the money, this hotel is nice and clean and comfortable.  The bed is AWESOME.  SO comfy.  They have Paul Mitchell shampoo, conditioner and lotion in the bathroom.  Nice clean room with great kitchenette, desk, nice TV, couch.  Everything looked clean and modern.  Did I say the bed was super comfy already?  It was!!!We called upon arrival to IAH (11:30pm) for the shuttle and they said he would be there in 20-25 minutes and they were there in more like 10 minutes. The shuttle runs from 5am to midnight every day so if you are delayed past midnight, you would have to cab it.  We left the next morning on the 5am shuttle, you have to make reservations the night before, and we left at 5:05am and were at the airport by 5:10am.  The shuttle was full with guests from the hotel next door so make sure you make your reservation!!  Food options are slim if you get in late and have no car.  The hotel has some snacks for sale and there is a restaurant within walking distance, but we didn't want to walk there in the dark at that hour. It is called Good Eats and it looked fine, we were just tired and needed to get up so early. Not sure if you could order pizza or something, but if you have a car you would be good to go.  Lots of fast food options within a short drive or hit the grocery store and make your own food...We missed the breakfast buffet due to our early departure but Tommy at the front desk had coffee already made and gave us each a bag wit a bottle of water, a granola bar, a muffin and an apple.  That was a nice touch and saved me some money at the airport. :)The things I needed to have in a hotel for this stay were free airport shuttle, free breakfast, free Wi-Fi and a pool (although we didn't use the pool).  This hotel fit the ill and exceeded my expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>We were only at the hotel for about 5 hours due to a delayed flight getting into IAH and a super early flight out the next morning.  
+For the money, this hotel is nice and clean and comfortable.  The bed is AWESOME.  SO comfy.  They have Paul Mitchell shampoo, conditioner and lotion in the bathroom.  Nice clean room with great kitchenette, desk, nice TV, couch.  Everything looked clean and modern.  Did I say the bed was super comfy already?  It was!!!
+We called upon arrival to IAH (11:30pm) for the shuttle and they said he would be there in 20-25 minutes and they were there in more like 10 minutes. The shuttle runs from 5am to midnight every day so if you are delayed past midnight, you would have to cab it.  We left the next morning on the 5am shuttle, you have to make reservations the night before, and we left at 5:05am and were at the airport by 5:10am.  The shuttle was full with guests from the hotel next door so make sure you make your reservation!!  
+Food options are slim if you get in late and have no car.  The hotel has some snacks for sale and there is a restaurant within walking distance, but we didn't want to walk there in the dark at that hour. It is called Good Eats and it looked fine, we were just tired and needed to get up so early....We were only at the hotel for about 5 hours due to a delayed flight getting into IAH and a super early flight out the next morning.  For the money, this hotel is nice and clean and comfortable.  The bed is AWESOME.  SO comfy.  They have Paul Mitchell shampoo, conditioner and lotion in the bathroom.  Nice clean room with great kitchenette, desk, nice TV, couch.  Everything looked clean and modern.  Did I say the bed was super comfy already?  It was!!!We called upon arrival to IAH (11:30pm) for the shuttle and they said he would be there in 20-25 minutes and they were there in more like 10 minutes. The shuttle runs from 5am to midnight every day so if you are delayed past midnight, you would have to cab it.  We left the next morning on the 5am shuttle, you have to make reservations the night before, and we left at 5:05am and were at the airport by 5:10am.  The shuttle was full with guests from the hotel next door so make sure you make your reservation!!  Food options are slim if you get in late and have no car.  The hotel has some snacks for sale and there is a restaurant within walking distance, but we didn't want to walk there in the dark at that hour. It is called Good Eats and it looked fine, we were just tired and needed to get up so early. Not sure if you could order pizza or something, but if you have a car you would be good to go.  Lots of fast food options within a short drive or hit the grocery store and make your own food...We missed the breakfast buffet due to our early departure but Tommy at the front desk had coffee already made and gave us each a bag wit a bottle of water, a granola bar, a muffin and an apple.  That was a nice touch and saved me some money at the airport. :)The things I needed to have in a hotel for this stay were free airport shuttle, free breakfast, free Wi-Fi and a pool (although we didn't use the pool).  This hotel fit the ill and exceeded my expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r328856363-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328856363</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>A nice hotel for a flight the next day out of IAH...</t>
+  </si>
+  <si>
+    <t>We stayed at the "TownePlace Suites (by Marriott) - Houston Intercontinental Airport" the night before flying back to Canada (from George Bush - Houston Intercontinental Airport - IAH). The free airport shuttle was very convenient and no problem at all. The hotel, itself, was nice; although, a bit in the middle of nowhere. A good tip given to us by the shuttle driver was to walk next door to the "Holiday Inn" which had a "Good Eats" restaurant attached to it (which was really nice with plenty of options and open until 11 pm). The TownePlace Suites has no restaurant (except for the breakfast buffet - with Texas-shaped waffles, by the way). However, from Monday through Saturday, a "take out company" will take orders and deliver to the hotel. The menu for that company was in the room. Our suite was nice and extremely clean. It had all the amenities: full fridge, microwave, two-burner stove, dishes, dishwasher, sitting area with flat screen TV and bedroom area - all "open-concept". The large King bed was very comfortable. My only complaint was that the walls were quite thin. We could easily hear the rather noisy group who shared two or three rooms near ours. However, all in all, we had a nice stay here. It was obviously very convenient for our flight out the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the "TownePlace Suites (by Marriott) - Houston Intercontinental Airport" the night before flying back to Canada (from George Bush - Houston Intercontinental Airport - IAH). The free airport shuttle was very convenient and no problem at all. The hotel, itself, was nice; although, a bit in the middle of nowhere. A good tip given to us by the shuttle driver was to walk next door to the "Holiday Inn" which had a "Good Eats" restaurant attached to it (which was really nice with plenty of options and open until 11 pm). The TownePlace Suites has no restaurant (except for the breakfast buffet - with Texas-shaped waffles, by the way). However, from Monday through Saturday, a "take out company" will take orders and deliver to the hotel. The menu for that company was in the room. Our suite was nice and extremely clean. It had all the amenities: full fridge, microwave, two-burner stove, dishes, dishwasher, sitting area with flat screen TV and bedroom area - all "open-concept". The large King bed was very comfortable. My only complaint was that the walls were quite thin. We could easily hear the rather noisy group who shared two or three rooms near ours. However, all in all, we had a nice stay here. It was obviously very convenient for our flight out the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r327709680-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327709680</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Close &amp; Comfort for a Quick Overnight</t>
+  </si>
+  <si>
+    <t>I had a quick overnight at the Towneplace Suites and it's close to the airport and freeway access for a quick shot to Midtown. The room was clean and equipped with a ton of kitchen amenities (Ex. 4 burner range, large sink, utensils), laundry hamper which I found was a great touch, and a very comfortable bed. I loved the countertops in the bathroom. This would be great hotel for an extended stay. I was on the top floor, so the airplane noise (which is completely unavoidable at any airport hotel) was a bit louder, so I would suggest requesting a room on the 1st or 2nd floor because it might dampened down the jet noise a bit. Also, request a room closer to the lobby side of the building, the floorplan is a giant L shape, and if your not the far end you have to walk a distance to most amenities. I turned into the second entrance, and the lobby was a little difficult to find from that direction. Honestly, not my favorite interior design of the Marriott brands, a little too contemporary. All-in-all it provides what Marriott does best, great and clean hotels!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a quick overnight at the Towneplace Suites and it's close to the airport and freeway access for a quick shot to Midtown. The room was clean and equipped with a ton of kitchen amenities (Ex. 4 burner range, large sink, utensils), laundry hamper which I found was a great touch, and a very comfortable bed. I loved the countertops in the bathroom. This would be great hotel for an extended stay. I was on the top floor, so the airplane noise (which is completely unavoidable at any airport hotel) was a bit louder, so I would suggest requesting a room on the 1st or 2nd floor because it might dampened down the jet noise a bit. Also, request a room closer to the lobby side of the building, the floorplan is a giant L shape, and if your not the far end you have to walk a distance to most amenities. I turned into the second entrance, and the lobby was a little difficult to find from that direction. Honestly, not my favorite interior design of the Marriott brands, a little too contemporary. All-in-all it provides what Marriott does best, great and clean hotels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r322029869-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322029869</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Teriffic place to stay before your cruise from Galveston</t>
+  </si>
+  <si>
+    <t>Our group (28 pax) flew to Houston Intercontinental Airport from Portland, Oregon, to spend the night before our Royal Caribbean cruise, from Galveston. My wife and I had actually stayed there 6 months before taking a cruise out of Port of Houston, sort of a test stay. Needless to say they did really well as we returned with our group. 18 of us flew on the same flight the day before the cruise and they sent two vans to pick us up! Nice easy transfer to the hotel. Hotel checked us all in quickly and with the weather in the low 80's it was great to gather around the outdoor pool for the afternoon. At dinner time we had a group that wanted to go out to dinner and they drove us a couple of miles away. Upon pick-up from dinner they made a stop at JFK Liquors, so we could buy wine to take aboard the ship. A complimentary buffet breakfast is served every morning and our group totally enjoyed it from eggs, sausages, waffles, cereal, toast, muffins, fruit, juice, etc. The waffle iron is in the shape of Texas. Lots of talk about "How cool is that!" A charter bus picked us up the next morning and away we went at 11am. Rooms are air-conditioned, staff is terrific, and the Sales Manager Jennifer was very accommodating and easy to work with for the 12 months preceding our stay...Our group (28 pax) flew to Houston Intercontinental Airport from Portland, Oregon, to spend the night before our Royal Caribbean cruise, from Galveston. My wife and I had actually stayed there 6 months before taking a cruise out of Port of Houston, sort of a test stay. Needless to say they did really well as we returned with our group. 18 of us flew on the same flight the day before the cruise and they sent two vans to pick us up! Nice easy transfer to the hotel. Hotel checked us all in quickly and with the weather in the low 80's it was great to gather around the outdoor pool for the afternoon. At dinner time we had a group that wanted to go out to dinner and they drove us a couple of miles away. Upon pick-up from dinner they made a stop at JFK Liquors, so we could buy wine to take aboard the ship. A complimentary buffet breakfast is served every morning and our group totally enjoyed it from eggs, sausages, waffles, cereal, toast, muffins, fruit, juice, etc. The waffle iron is in the shape of Texas. Lots of talk about "How cool is that!" A charter bus picked us up the next morning and away we went at 11am. Rooms are air-conditioned, staff is terrific, and the Sales Manager Jennifer was very accommodating and easy to work with for the 12 months preceding our stay as were the GM’ s Chad and Chris(Chris was from the sister property next door)and all the vans drivers (Carlos was exceptional). Highly recommend for two people to any size group!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Our group (28 pax) flew to Houston Intercontinental Airport from Portland, Oregon, to spend the night before our Royal Caribbean cruise, from Galveston. My wife and I had actually stayed there 6 months before taking a cruise out of Port of Houston, sort of a test stay. Needless to say they did really well as we returned with our group. 18 of us flew on the same flight the day before the cruise and they sent two vans to pick us up! Nice easy transfer to the hotel. Hotel checked us all in quickly and with the weather in the low 80's it was great to gather around the outdoor pool for the afternoon. At dinner time we had a group that wanted to go out to dinner and they drove us a couple of miles away. Upon pick-up from dinner they made a stop at JFK Liquors, so we could buy wine to take aboard the ship. A complimentary buffet breakfast is served every morning and our group totally enjoyed it from eggs, sausages, waffles, cereal, toast, muffins, fruit, juice, etc. The waffle iron is in the shape of Texas. Lots of talk about "How cool is that!" A charter bus picked us up the next morning and away we went at 11am. Rooms are air-conditioned, staff is terrific, and the Sales Manager Jennifer was very accommodating and easy to work with for the 12 months preceding our stay...Our group (28 pax) flew to Houston Intercontinental Airport from Portland, Oregon, to spend the night before our Royal Caribbean cruise, from Galveston. My wife and I had actually stayed there 6 months before taking a cruise out of Port of Houston, sort of a test stay. Needless to say they did really well as we returned with our group. 18 of us flew on the same flight the day before the cruise and they sent two vans to pick us up! Nice easy transfer to the hotel. Hotel checked us all in quickly and with the weather in the low 80's it was great to gather around the outdoor pool for the afternoon. At dinner time we had a group that wanted to go out to dinner and they drove us a couple of miles away. Upon pick-up from dinner they made a stop at JFK Liquors, so we could buy wine to take aboard the ship. A complimentary buffet breakfast is served every morning and our group totally enjoyed it from eggs, sausages, waffles, cereal, toast, muffins, fruit, juice, etc. The waffle iron is in the shape of Texas. Lots of talk about "How cool is that!" A charter bus picked us up the next morning and away we went at 11am. Rooms are air-conditioned, staff is terrific, and the Sales Manager Jennifer was very accommodating and easy to work with for the 12 months preceding our stay as were the GM’ s Chad and Chris(Chris was from the sister property next door)and all the vans drivers (Carlos was exceptional). Highly recommend for two people to any size group!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r321271468-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321271468</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for one night due to an overnight layover. The free airport shuttle was prompt and the driver was so nice. We had to leave the next morning at 5:00 a.m. due to our early flight therefore they were not serving breakfast, so they gave each of us a bag with a bottle of water, apple, muffin and a granola bar. The rooms were very nice and very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night due to an overnight layover. The free airport shuttle was prompt and the driver was so nice. We had to leave the next morning at 5:00 a.m. due to our early flight therefore they were not serving breakfast, so they gave each of us a bag with a bottle of water, apple, muffin and a granola bar. The rooms were very nice and very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r320946026-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320946026</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I really enjoyed myself at this hotel. It was very clean and the staff was great very friendly.  I was pleased with their breakfast as well. They had a waffle maker in the shape of Texas (how cute). I enjoyed the pool and the gym during my stay. I would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoyed myself at this hotel. It was very clean and the staff was great very friendly.  I was pleased with their breakfast as well. They had a waffle maker in the shape of Texas (how cute). I enjoyed the pool and the gym during my stay. I would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r316141198-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316141198</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I stayed here while I was in town visiting with friends.  The hotel staff was friendly and gave me a quick overview of the services during my check-in.  They offered a free breakfast, I especially liked the Texas shape waffles. They had a beautiful outdoor weather. My room was clean and very comfortable. Did I mention they had an awesome closet! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here while I was in town visiting with friends.  The hotel staff was friendly and gave me a quick overview of the services during my check-in.  They offered a free breakfast, I especially liked the Texas shape waffles. They had a beautiful outdoor weather. My room was clean and very comfortable. Did I mention they had an awesome closet! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r315699014-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315699014</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Adequate For Stays Between Flights But Isolated</t>
+  </si>
+  <si>
+    <t>Stayed here overnight between flights at Houston Intercontinental Airport.  Room was comfortable and a problem with the Internet at 11 PM was handled quickly and competently by their off-site provider.  Free breakfast was ok:  the Texas-shaped waffles found all over the Lone Star State and a limited selection of breakfast meats and reconstituted scrambled eggs.  Staff was pleasant and shuttle to and from the airport was efficient.  All in all, it was a pleasant but limited accommodation...worth the $79 room charge.  Unfortunately, added onto to that is 17% in state, city, and county taxes, upping traveler costs to $93 which makes the hotel less of a value.  In addition, the hotel is isolated for travelers who don't have a car; there are not even any restaurants in walking distance.  If you choose to stay here between flights, remember to eat dinner at the airport and expect about a 30-minute wait for the shuttle to pick you up afterwards.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed here overnight between flights at Houston Intercontinental Airport.  Room was comfortable and a problem with the Internet at 11 PM was handled quickly and competently by their off-site provider.  Free breakfast was ok:  the Texas-shaped waffles found all over the Lone Star State and a limited selection of breakfast meats and reconstituted scrambled eggs.  Staff was pleasant and shuttle to and from the airport was efficient.  All in all, it was a pleasant but limited accommodation...worth the $79 room charge.  Unfortunately, added onto to that is 17% in state, city, and county taxes, upping traveler costs to $93 which makes the hotel less of a value.  In addition, the hotel is isolated for travelers who don't have a car; there are not even any restaurants in walking distance.  If you choose to stay here between flights, remember to eat dinner at the airport and expect about a 30-minute wait for the shuttle to pick you up afterwards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r308122193-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308122193</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Refreshing Surprise</t>
+  </si>
+  <si>
+    <t>Marriott line is a well know hotel line with above average standards for comfort and cleanliness so I shouldn't have been surprised to fine the room very spacious, the staff friendly and accommodating, and the breakfast on par! Altogether a one night stay accommodating a late afternoon departure from George Bush international Airport and I'd happily return for another night. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Marriott line is a well know hotel line with above average standards for comfort and cleanliness so I shouldn't have been surprised to fine the room very spacious, the staff friendly and accommodating, and the breakfast on par! Altogether a one night stay accommodating a late afternoon departure from George Bush international Airport and I'd happily return for another night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r292967867-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292967867</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Great place for quick stay by airport</t>
+  </si>
+  <si>
+    <t>Clean, newer hotel close to airport. There is a shuttle that runs regularly. Everyone was very nice, easy check-in, rooms comfortable, and they even had a Texas shaped waffle maker at the breakfast buffet. Pool was a bit small, but there were people using it and it was clean. Large outdoor sitting g/grilling area. We had relatives that stayed at the hotel next door, and by description the TownePlace was much nicer. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Clean, newer hotel close to airport. There is a shuttle that runs regularly. Everyone was very nice, easy check-in, rooms comfortable, and they even had a Texas shaped waffle maker at the breakfast buffet. Pool was a bit small, but there were people using it and it was clean. Large outdoor sitting g/grilling area. We had relatives that stayed at the hotel next door, and by description the TownePlace was much nicer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r289705516-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289705516</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Nice and Clean Place we fell in love with</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay at this hotel: the rooms and entire property are very clean. Great breakfast, clean area. Nice pool area. Entire property is surrounded by trees, very calming. Close to the IAH airport but no problems with noise from aircraft. We choose this airport due to it's close vicinity with the airport in order to watch some airplanes but you cannot see the airport from this hotel; also you will not be able to spot airplanes other then when they fly over. The check-in was flawless and fast and the night before checking out we got our invoice under the door and basically just walked out the door next day without really checking out at the counter (paid with credit card). Also, the buildings are easy to enter with entry doors all around (they will only open with your digital key). In fact, we fell in love with this place and would definitely stay here again ;-)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay at this hotel: the rooms and entire property are very clean. Great breakfast, clean area. Nice pool area. Entire property is surrounded by trees, very calming. Close to the IAH airport but no problems with noise from aircraft. We choose this airport due to it's close vicinity with the airport in order to watch some airplanes but you cannot see the airport from this hotel; also you will not be able to spot airplanes other then when they fly over. The check-in was flawless and fast and the night before checking out we got our invoice under the door and basically just walked out the door next day without really checking out at the counter (paid with credit card). Also, the buildings are easy to enter with entry doors all around (they will only open with your digital key). In fact, we fell in love with this place and would definitely stay here again ;-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r288815667-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288815667</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We had to overnight in Houston on the way home from a vacation trip.  We chose this hotel because it has a free shuttle from the airport.  The airport pickup was prompt, and the hotel checkin was efficient.  The room was great - a/c was already on and it was clean, bright, and comfortable.  Would definitely stay here again if in the Houston airport area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>We had to overnight in Houston on the way home from a vacation trip.  We chose this hotel because it has a free shuttle from the airport.  The airport pickup was prompt, and the hotel checkin was efficient.  The room was great - a/c was already on and it was clean, bright, and comfortable.  Would definitely stay here again if in the Houston airport area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r284193868-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284193868</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Houston get away</t>
+  </si>
+  <si>
+    <t>TownePlace Suites was a very nice place to stay with very clean and updated rooms, The staff was extra friendly and helpful pointing out directions if needed and the cleaning staff was great as well.The breakfeast could open a bit earlyer but it was a great meal with a wide variety of healthy food to choose from.Easy location to get to right off the HWY, very quiet, and the pool was a great place to relax with cool water, If I were being picky I would say maybe need an Umbrella or 2 but that's being very picky.The only bad issue I had was a friend came to visit and brought a dog and I was charged a $100 pet fee for them visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>TownePlace Suites was a very nice place to stay with very clean and updated rooms, The staff was extra friendly and helpful pointing out directions if needed and the cleaning staff was great as well.The breakfeast could open a bit earlyer but it was a great meal with a wide variety of healthy food to choose from.Easy location to get to right off the HWY, very quiet, and the pool was a great place to relax with cool water, If I were being picky I would say maybe need an Umbrella or 2 but that's being very picky.The only bad issue I had was a friend came to visit and brought a dog and I was charged a $100 pet fee for them visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r284155120-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284155120</t>
+  </si>
+  <si>
+    <t>excellent one day stay</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel. Excellent room, clean, spacious, attentive staff and always smiling. I was impressed by the breakfast: almost all you can imagine to make it healthy and complete (with eggs,different type of fruits, yogurths, cereals, etc). The pool is not so big but enough to get a splash during a hot day. Also, a nice neighborhood around to have a walkMoreShow less</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel. Excellent room, clean, spacious, attentive staff and always smiling. I was impressed by the breakfast: almost all you can imagine to make it healthy and complete (with eggs,different type of fruits, yogurths, cereals, etc). The pool is not so big but enough to get a splash during a hot day. Also, a nice neighborhood around to have a walkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r275100217-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275100217</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>great staff and everything you need for short or long stay</t>
+  </si>
+  <si>
+    <t>Stuck in Houston after flight cancelled. Arrived hot, tired and frustrated. Daria and Andrew were so efficient in getting us checked in, provided a bag of snacks and even arranging for a bag breakfast for our early departure in the morning. They offered suggestions for ordering in food or where we could walk to get a meal. The room was so comfortable with full fridge and closet. Also there were pots/pans etc. and stovetop and microwave for those staying longer than us. The best part is that despite being close to the airport, I did not hear plane noise and slept great. Appreciated the king size bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Stuck in Houston after flight cancelled. Arrived hot, tired and frustrated. Daria and Andrew were so efficient in getting us checked in, provided a bag of snacks and even arranging for a bag breakfast for our early departure in the morning. They offered suggestions for ordering in food or where we could walk to get a meal. The room was so comfortable with full fridge and closet. Also there were pots/pans etc. and stovetop and microwave for those staying longer than us. The best part is that despite being close to the airport, I did not hear plane noise and slept great. Appreciated the king size bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r263058351-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263058351</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Sales Manager Jennifer Polasek should teach other hotels about excellent customer service</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that the Sales Manager Jennifer Polasek is simply amazing. She is truly the definition of customer service. I think that Marriott needs to pay close attention to this one. I live on the road and stay in over 150 hotels a year. I always try and stay at Marriott. This by far is the most amazing and friendly Marriott I have stayed at within the last year. Jennifer, Thanks so much for the wonderful stay and I will recommend this Marriott to all my traveling associates.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that the Sales Manager Jennifer Polasek is simply amazing. She is truly the definition of customer service. I think that Marriott needs to pay close attention to this one. I live on the road and stay in over 150 hotels a year. I always try and stay at Marriott. This by far is the most amazing and friendly Marriott I have stayed at within the last year. Jennifer, Thanks so much for the wonderful stay and I will recommend this Marriott to all my traveling associates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r263057503-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263057503</t>
+  </si>
+  <si>
+    <t>Excellent hotel and great customer service</t>
+  </si>
+  <si>
+    <t>I was one of many in a large group for work and we needed several rooms by the Houston Bush airport. I worked with Jennifer, sales manager, who was able to accommodate such a large group and made our stay very comfortable.  She even introduced herself to our group when arriving and gave us a warm welcome. Our group experience was top notch, from the cs at the front desk checking in, free breakfast and the comfort of our rooms. This seems like a newer property and it's great to have a free shuttle to the airport. I would recommend staying here in the future and I'll be returning to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was one of many in a large group for work and we needed several rooms by the Houston Bush airport. I worked with Jennifer, sales manager, who was able to accommodate such a large group and made our stay very comfortable.  She even introduced herself to our group when arriving and gave us a warm welcome. Our group experience was top notch, from the cs at the front desk checking in, free breakfast and the comfort of our rooms. This seems like a newer property and it's great to have a free shuttle to the airport. I would recommend staying here in the future and I'll be returning to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r262002171-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262002171</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>The beds are comfortable and clean, with a kitchenette that has a full size refrigerator. In the morning  0600-0900 there is a breakfast, and on Mon -Wed from 6pm there is a happy hour with food(appetizer) and drinks. It's great because you have to walk to get to any restaurant. A few blocks away there is a mall with a Mexican, Cajun, and Chinese restaurant. There is a courtesy  van that runs every  half hour till 0800. But if you call them from the airport the van will come and pick you up,about a five minute ride from the airport. If you are coming straight from the airport buying dinner before getting on the van might be a good idea, there's lots of places to pick up food. The staff here is nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>The beds are comfortable and clean, with a kitchenette that has a full size refrigerator. In the morning  0600-0900 there is a breakfast, and on Mon -Wed from 6pm there is a happy hour with food(appetizer) and drinks. It's great because you have to walk to get to any restaurant. A few blocks away there is a mall with a Mexican, Cajun, and Chinese restaurant. There is a courtesy  van that runs every  half hour till 0800. But if you call them from the airport the van will come and pick you up,about a five minute ride from the airport. If you are coming straight from the airport buying dinner before getting on the van might be a good idea, there's lots of places to pick up food. The staff here is nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r257371488-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257371488</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Towneplace Bush airport</t>
+  </si>
+  <si>
+    <t>Getting here was a bit tricky, it is off the main road, and onto a super rough road, we are talking so rough it is 4 lanes but no markings as the truck that paints lines prolly couldn't stay steady enough to paint straight. Tucked away when you finally arrive in a garden like setting are twin hotels, one being towneplace where I stayed. The property is large, check in was alright, and room rather nice, standard kitchen as is offered for the brand, nice bathroom with ceilings that match the rest of the room, no low bath ceiling here!. The awkward angle of the the tv was biggest grip, but hey, if thats the most that went wrong we are in good shape. Also did the laundry here since I flew spirit and opted to buy new clothes at target upon arrival and wash them rather than spend 70 bucks for a carry on. 2.50 a load to wash seemed high though, especially considering that most machines had gunk left from the working mans laundry. I selected the least gross machine and my clothes were not damaged so it was fine. There were some tasty muffins for breakfast included. Overall I was satisfied enough to offer 5 stars. Oh, and the road, while in extreme sorry shape is passable by car, just avoid open coffee in the car and drive like 15 mph.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Getting here was a bit tricky, it is off the main road, and onto a super rough road, we are talking so rough it is 4 lanes but no markings as the truck that paints lines prolly couldn't stay steady enough to paint straight. Tucked away when you finally arrive in a garden like setting are twin hotels, one being towneplace where I stayed. The property is large, check in was alright, and room rather nice, standard kitchen as is offered for the brand, nice bathroom with ceilings that match the rest of the room, no low bath ceiling here!. The awkward angle of the the tv was biggest grip, but hey, if thats the most that went wrong we are in good shape. Also did the laundry here since I flew spirit and opted to buy new clothes at target upon arrival and wash them rather than spend 70 bucks for a carry on. 2.50 a load to wash seemed high though, especially considering that most machines had gunk left from the working mans laundry. I selected the least gross machine and my clothes were not damaged so it was fine. There were some tasty muffins for breakfast included. Overall I was satisfied enough to offer 5 stars. Oh, and the road, while in extreme sorry shape is passable by car, just avoid open coffee in the car and drive like 15 mph.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r257057674-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257057674</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Wow.  Impressed</t>
+  </si>
+  <si>
+    <t>My wife and I got stuck in Houston due to flight being cancelled. We stayed at Towne Place at the airport. At first, I wasn't excited due to past experience with the chain which I would have compared to Extended Stay or Candlewood. But, that has changed.  I was very impressed. My room was great, nicely furnished and decorated and very clean. Staff was very friendly. Lobby was very nice. I would put this hotel up against a Staybridge Suites and a Residence Inn. Great Job Marriott on turning this brand around. Put more up like this one. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I got stuck in Houston due to flight being cancelled. We stayed at Towne Place at the airport. At first, I wasn't excited due to past experience with the chain which I would have compared to Extended Stay or Candlewood. But, that has changed.  I was very impressed. My room was great, nicely furnished and decorated and very clean. Staff was very friendly. Lobby was very nice. I would put this hotel up against a Staybridge Suites and a Residence Inn. Great Job Marriott on turning this brand around. Put more up like this one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r254104424-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254104424</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Clean but poor service</t>
+  </si>
+  <si>
+    <t>Pros:-clean-close to airport-free shuttle-free breakfast-nice poolCons:-internet was slow and in and out- didn't work half the time-cable tv didn't work-refused to make extra oatmeal at breakfast when it had run out-requested laundry bags twice before they finally brought them-requested pool towels twice before they finally brought them-told us the wrong time for the shuttle... even after we asked to confirm-shower water pressure weak MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Pros:-clean-close to airport-free shuttle-free breakfast-nice poolCons:-internet was slow and in and out- didn't work half the time-cable tv didn't work-refused to make extra oatmeal at breakfast when it had run out-requested laundry bags twice before they finally brought them-requested pool towels twice before they finally brought them-told us the wrong time for the shuttle... even after we asked to confirm-shower water pressure weak More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r241110145-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241110145</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Good Value, Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the TownePlace Suites Houston Intercontinental Airport for only one night after our Caribbean cruse on the Norwegian Jewel. The hotel was far better than I expected seeing the rate I paid for the suite, $78.00 for the night using the Marriott senior discount. The suite was well appointed, clean and a comfortable bed. Arranged for the free shuttle in the morning which was on time and only a ten minute drive to the airport. The breakfast in the morning was a nice start to the day with a selection of hot and cold items and plenty of seating so there was no wait for a table. I would give this hotel a 5 rating except for two minor items, first being location, there are no restaurants or  coffee shops within walking distance so if you do not have a car have to consider this fact and also there are no mats in the bathtubs that surprised me since this is a slipping hazard.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Chad S, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the TownePlace Suites Houston Intercontinental Airport for only one night after our Caribbean cruse on the Norwegian Jewel. The hotel was far better than I expected seeing the rate I paid for the suite, $78.00 for the night using the Marriott senior discount. The suite was well appointed, clean and a comfortable bed. Arranged for the free shuttle in the morning which was on time and only a ten minute drive to the airport. The breakfast in the morning was a nice start to the day with a selection of hot and cold items and plenty of seating so there was no wait for a table. I would give this hotel a 5 rating except for two minor items, first being location, there are no restaurants or  coffee shops within walking distance so if you do not have a car have to consider this fact and also there are no mats in the bathtubs that surprised me since this is a slipping hazard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r241090716-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241090716</t>
+  </si>
+  <si>
+    <t>Quite and close to airport, not easy to find</t>
+  </si>
+  <si>
+    <t>It was a late night and if without my GPS, I would have a hard time looking for it.  It was located, at least at night in a quite place.  I arrived late and checked in with not much of hassle. The clerk was very nice.  The room was a typical suite, quite decent. Bed is comfortable and room is quite.  Since this is a suite, it has all the cooking amnesties which I did not use.  Bathroom was clean but rather little small.  Internet was provided free.  For the price, this is a good place for a night before air travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a late night and if without my GPS, I would have a hard time looking for it.  It was located, at least at night in a quite place.  I arrived late and checked in with not much of hassle. The clerk was very nice.  The room was a typical suite, quite decent. Bed is comfortable and room is quite.  Since this is a suite, it has all the cooking amnesties which I did not use.  Bathroom was clean but rather little small.  Internet was provided free.  For the price, this is a good place for a night before air travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r240326594-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240326594</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed it</t>
+  </si>
+  <si>
+    <t>Great North Houston location. The rooms were average size but cozy and comfortable. Modern appliances compared to another TownPlace Suites I stayed in Houston. The staff were great and accommodating. Having a managers reception or light dinner on M-Wed was nice. They even offered wine and beer but you have to ask. The exterior of the hotel is beautiful. I just so happen to be there when the weather got cold and it was nice to have a hotel with a fireplace in the lobby working. Beautiful decor with the palm trees and outside patio and pool. The fitness center gives you plenty of room for a good workout. Thumbs up for this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great North Houston location. The rooms were average size but cozy and comfortable. Modern appliances compared to another TownPlace Suites I stayed in Houston. The staff were great and accommodating. Having a managers reception or light dinner on M-Wed was nice. They even offered wine and beer but you have to ask. The exterior of the hotel is beautiful. I just so happen to be there when the weather got cold and it was nice to have a hotel with a fireplace in the lobby working. Beautiful decor with the palm trees and outside patio and pool. The fitness center gives you plenty of room for a good workout. Thumbs up for this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r235267189-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235267189</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Free parking I'd you want to wait an hour for a shuttle ride back to the hotel from the airport.  The breakfast inconveniently starts well after most departures to the aitport.  I am very disappointed and will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>A R, Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Free parking I'd you want to wait an hour for a shuttle ride back to the hotel from the airport.  The breakfast inconveniently starts well after most departures to the aitport.  I am very disappointed and will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r235029984-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235029984</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Good overnight stay from the airport</t>
+  </si>
+  <si>
+    <t>Needed a room when I was stuck at the airport overnight. The shuttle pickup took about 20 minutes. Room checkin (late) was quick and efficient. Room was fine- with a fridge and burner- bathroom was not the cleanest with a long hair in the tub. Not a lot of stations on the tv, but they have HBO.  Stay was fine- but breakfast doesn't start until later in the morning on the weekend- 7 am I think. The food was out, Dino had a banana and a Texas shaped waffle with hard boiled eggs and coffee. Was a fine economy stay location- but there is little else surrounding the area if you do not have a car. MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a room when I was stuck at the airport overnight. The shuttle pickup took about 20 minutes. Room checkin (late) was quick and efficient. Room was fine- with a fridge and burner- bathroom was not the cleanest with a long hair in the tub. Not a lot of stations on the tv, but they have HBO.  Stay was fine- but breakfast doesn't start until later in the morning on the weekend- 7 am I think. The food was out, Dino had a banana and a Texas shaped waffle with hard boiled eggs and coffee. Was a fine economy stay location- but there is little else surrounding the area if you do not have a car. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r232616166-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232616166</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>A good retreat around North Sam Houston</t>
+  </si>
+  <si>
+    <t>This hotel is around 5mins drive from the Airport. Very convenient  for solo or family travelers as well. The surroundings are quite nice and calm with no hustle and bustle of the traffic towards the airport since its a bit inside from the main road.The rooms are very clean and packed with the essentials like a coffee maker, microwave and a fridge. The bed is quite comfortable too. There isn't 24hr room service or an in-house Restaurent / bar, which can be a letdown for travelers who aren't driving.There is however a lobby in the ground floor near the reception where breakfast and dinner is served, but only for the guests and not too many selections.The daily breakfast is pretty neat. Not too many stuff, yet quite essentials. I would say value for money.The rooms are cleaned  and maintained and re-stocked with the toiletries everyday; there is also a small pool in the property and a gym. In short, a good place to stay for a short visit in Houston, if your work/business is in or nearby the airport /  Sam Houston Parkway.MoreShow less</t>
+  </si>
+  <si>
+    <t>A R, Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is around 5mins drive from the Airport. Very convenient  for solo or family travelers as well. The surroundings are quite nice and calm with no hustle and bustle of the traffic towards the airport since its a bit inside from the main road.The rooms are very clean and packed with the essentials like a coffee maker, microwave and a fridge. The bed is quite comfortable too. There isn't 24hr room service or an in-house Restaurent / bar, which can be a letdown for travelers who aren't driving.There is however a lobby in the ground floor near the reception where breakfast and dinner is served, but only for the guests and not too many selections.The daily breakfast is pretty neat. Not too many stuff, yet quite essentials. I would say value for money.The rooms are cleaned  and maintained and re-stocked with the toiletries everyday; there is also a small pool in the property and a gym. In short, a good place to stay for a short visit in Houston, if your work/business is in or nearby the airport /  Sam Houston Parkway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r225561436-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225561436</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel - But....</t>
+  </si>
+  <si>
+    <t>Nice property. Short drive from the Houston Airport (IAH). Staff are very friendly. Housekeeping Supervisor and front desk Clerk (Michael) were very accommodating. They both went out of their way several times to make my stay comfortable. Based on location and facility condition this property should be rated very good to excellent, but management has major issues with regards to how they maintain the fitness equipment. When I arrived one of the 2 treadmills in the fitness room were broken. 2 weeks later both were broken and 1 of the 2 treadmills in the adjoining Fair Field Inn (managed by the same group) was broken. So 3 out of 4 treadmills were broken. When I ask how long they expected it would take to get working treadmills I was told it would be at least a week. Management's accommodation was to offered me access to fitness facilities at other hotels in the local area. I spend 300 days a year in hotels and there are several things I look for in a hotel. The fitness centre is one of them -  I check out the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Nice property. Short drive from the Houston Airport (IAH). Staff are very friendly. Housekeeping Supervisor and front desk Clerk (Michael) were very accommodating. They both went out of their way several times to make my stay comfortable. Based on location and facility condition this property should be rated very good to excellent, but management has major issues with regards to how they maintain the fitness equipment. When I arrived one of the 2 treadmills in the fitness room were broken. 2 weeks later both were broken and 1 of the 2 treadmills in the adjoining Fair Field Inn (managed by the same group) was broken. So 3 out of 4 treadmills were broken. When I ask how long they expected it would take to get working treadmills I was told it would be at least a week. Management's accommodation was to offered me access to fitness facilities at other hotels in the local area. I spend 300 days a year in hotels and there are several things I look for in a hotel. The fitness centre is one of them -  I check out the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r223621507-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223621507</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Nice and great price.</t>
+  </si>
+  <si>
+    <t>Nice hotel.  Suites are pretty small though.  So although there is a king size bed and a sofa bed, when the bed is open, it's kind of tight, but it was suitable for me and 2 teenage girls.The small Kitchen is nice to have if you are staying a big longer.  Shuttle was quick and efficient.Only downside was the person when we checked in, although friendly and polite, had his headphones on and kept making me repeat everything several times.  I find it unprofessional that someone working is serving client with earbuds in.  Just a small pet-peeve of mine!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel.  Suites are pretty small though.  So although there is a king size bed and a sofa bed, when the bed is open, it's kind of tight, but it was suitable for me and 2 teenage girls.The small Kitchen is nice to have if you are staying a big longer.  Shuttle was quick and efficient.Only downside was the person when we checked in, although friendly and polite, had his headphones on and kept making me repeat everything several times.  I find it unprofessional that someone working is serving client with earbuds in.  Just a small pet-peeve of mine!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r221056458-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221056458</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantabulous!!!! </t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed at this hotel for a mini vacay and it is by far the BEST of the Marriott chain in Houston. We absolutely loved it. It was extremely quiet for a weekend and the fact that they serve free breakfast and a mini dinner was awesomeness. There is also a cute mini kitchette with updated appliances and the room was nothing less than perfect. Every thing from the pool view, staff, parking, decor and location was great. Good job Mariott. They work hard for their customers and they Excell!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed at this hotel for a mini vacay and it is by far the BEST of the Marriott chain in Houston. We absolutely loved it. It was extremely quiet for a weekend and the fact that they serve free breakfast and a mini dinner was awesomeness. There is also a cute mini kitchette with updated appliances and the room was nothing less than perfect. Every thing from the pool view, staff, parking, decor and location was great. Good job Mariott. They work hard for their customers and they Excell!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r211728697-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211728697</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We stayed here the night before we flew out for vacation.  The hotel was very accommodating and much more of a room than we needed for our one night stay.  They have a private shuttle for the airport and we were able to leave our vehicle there for free!!!  It is literally on the same street as Intercontinental Airport.  It was a very nice place and would stay there again.  Rooms were very comfortable and clean.  There is a Holiday Inn next door that was walking distance that has a restaurant and bar, very convenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here the night before we flew out for vacation.  The hotel was very accommodating and much more of a room than we needed for our one night stay.  They have a private shuttle for the airport and we were able to leave our vehicle there for free!!!  It is literally on the same street as Intercontinental Airport.  It was a very nice place and would stay there again.  Rooms were very comfortable and clean.  There is a Holiday Inn next door that was walking distance that has a restaurant and bar, very convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r195099612-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195099612</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>I was unable to make my flight so I picked this hotel since it was nearby. The ride via shuttle was only about 7 minutes and the room was very nice and clean. Since I was on first floor it was quick and easy to get in and out. Only downside is that rear rooms face parking lot and sometimes the car lights show through the window. Request a room on first and away from lot and you will be fine. They also use Paul Mitchell soap products which I like which is another plus.Breakfast is served 7am to 10am which is good too!.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2014</t>
+  </si>
+  <si>
+    <t>I was unable to make my flight so I picked this hotel since it was nearby. The ride via shuttle was only about 7 minutes and the room was very nice and clean. Since I was on first floor it was quick and easy to get in and out. Only downside is that rear rooms face parking lot and sometimes the car lights show through the window. Request a room on first and away from lot and you will be fine. They also use Paul Mitchell soap products which I like which is another plus.Breakfast is served 7am to 10am which is good too!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r192288043-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192288043</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Training Trip</t>
+  </si>
+  <si>
+    <t>I had a training Seminar at Intercontinental Airport and with the shuttle service and this properties location I was able to get around without having a rental car. The room was very nice although I did not use most of the amenities there were plenty. I had a full size refrigerator, dishwasher, a microwave, a coffee pot, silverware and pots and pans.  Then you entered the rest of the room where a desk with free wi-fi was available the bed was large and comfortable. I don't want to forget the bathroom with the larger then normal hotel tub. This hotel also offers free breakfast and dinner buffet with eatable food.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2014</t>
+  </si>
+  <si>
+    <t>I had a training Seminar at Intercontinental Airport and with the shuttle service and this properties location I was able to get around without having a rental car. The room was very nice although I did not use most of the amenities there were plenty. I had a full size refrigerator, dishwasher, a microwave, a coffee pot, silverware and pots and pans.  Then you entered the rest of the room where a desk with free wi-fi was available the bed was large and comfortable. I don't want to forget the bathroom with the larger then normal hotel tub. This hotel also offers free breakfast and dinner buffet with eatable food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r184201928-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184201928</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Best Stay for Business or Family</t>
+  </si>
+  <si>
+    <t>The management team (Lizzette) and her crew are the best. Theymake you feel at home and treat you like family. I had to travel for work at last minute and my mother had to travel with me.She is 78 years young so I was cautious about her staying home alone. She had the greatest time! Thank you, Lizzette. If you are in the area and need a nice friendly hotel, book this one please. You will be glad you did. Just my two centsMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded January 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2014</t>
+  </si>
+  <si>
+    <t>The management team (Lizzette) and her crew are the best. Theymake you feel at home and treat you like family. I had to travel for work at last minute and my mother had to travel with me.She is 78 years young so I was cautious about her staying home alone. She had the greatest time! Thank you, Lizzette. If you are in the area and need a nice friendly hotel, book this one please. You will be glad you did. Just my two centsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r181478798-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181478798</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Terrible Check-out</t>
+  </si>
+  <si>
+    <t>I paid for my one-night stay on three months ahead of time on Kayak.com which used Hotel.com.  Just before I went to bed I asked the polite young night clerk to give me a 0600 wake-up call and watched him write it down on a clipboard.  The next morning I got NO wake-up call and an obviously distracted clerk proceeded to check me out.  When I got home from my international location I found out that my credit card had been charged $133!!  Rooms were nice, but morning clerk very inefficient and when I contacted Marriott they said they had NO record of my visit!! Avoid this hotel and stay some place else!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I paid for my one-night stay on three months ahead of time on Kayak.com which used Hotel.com.  Just before I went to bed I asked the polite young night clerk to give me a 0600 wake-up call and watched him write it down on a clipboard.  The next morning I got NO wake-up call and an obviously distracted clerk proceeded to check me out.  When I got home from my international location I found out that my credit card had been charged $133!!  Rooms were nice, but morning clerk very inefficient and when I contacted Marriott they said they had NO record of my visit!! Avoid this hotel and stay some place else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r180118001-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180118001</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Homey place, but MUST have a vehicle</t>
+  </si>
+  <si>
+    <t>Spent four nights here recently for work, which was right down the street and ALMOST went without getting a work approved rental vehicle. This would have been a bummer, since there isn't really anything within walking distance. It's basically in an industrial park! Alas, back to the hotel. I found my room to be clean and neat and the staff to be friendly. I greatly appreciated the little social hours each night with some hot snacks and free wine/beer. After getting over the initial oddness of having to knock on a door for free boxed wine I felt right at home. My ONLY complaint is that other guests felt like they needed to have a pool party every night around bedtime and my window faced the pool. I quickly learned to turn the fan on the heating &amp; cooling unit to drown them out. The bed was more than comfortable though and I was able to enjoy nice naps after work before their shenanigans began. We ate breakfast at the hotel each morning and it was nicer than the average continental with some hot buffet items and a Texas shaped waffle iron ( I was too lazy to use this). If you are traveling near this hotel for work I do recommend it. However, if you want to see any of the city you will need a vehicle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent four nights here recently for work, which was right down the street and ALMOST went without getting a work approved rental vehicle. This would have been a bummer, since there isn't really anything within walking distance. It's basically in an industrial park! Alas, back to the hotel. I found my room to be clean and neat and the staff to be friendly. I greatly appreciated the little social hours each night with some hot snacks and free wine/beer. After getting over the initial oddness of having to knock on a door for free boxed wine I felt right at home. My ONLY complaint is that other guests felt like they needed to have a pool party every night around bedtime and my window faced the pool. I quickly learned to turn the fan on the heating &amp; cooling unit to drown them out. The bed was more than comfortable though and I was able to enjoy nice naps after work before their shenanigans began. We ate breakfast at the hotel each morning and it was nicer than the average continental with some hot buffet items and a Texas shaped waffle iron ( I was too lazy to use this). If you are traveling near this hotel for work I do recommend it. However, if you want to see any of the city you will need a vehicle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r163288556-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163288556</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Nothing but the best</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for well over a month... Let me tell you something, Lizzet is the absolute best manager there is, she will make sure that you are taken care of and she will help you out any way she can. The facility is very well maintained and the rooms a very comfy, it almost feels like you are in a fancy apartment complex. The only negative about this place is the WIFI, for some reason it will kick you out randomly or it would be really really slow. Again LIZZET is the best manager ever!!!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r156783940-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156783940</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Decent "Extended Stay" Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the TownePlace for a couple of days while doing business at the airport.  This was the first time I had stayed in a TownePlace as opposed to the Residence Inn.  Overall I found them very similar…same quality that comes with the Marriott hotels.  Good substantial “evening social” which was plenty of food to eat for dinner, and they also had a good selection of hot and cold items each morning for breakfast.  The only thing we found a little weird about the evening social was that even though they served beer and wine, they didn’t set it out where you could serve yourself (as most “evening socials” I have been to do) and they didn’t even really let you know it was available.  You had to find one of the staff and ask them for a cup of wine or a beer, and they would bring it to you one serving at a time…maybe it’s a Texas thing, I don’t know.  The rooms were adequate, with full fridge, microwave, stove, etc…just like the Residence Inn.  I have to say I didn’t like the layout of the rooms as much as Residence Inn…particularly the location of the television…they put it in a weird place where you really can’t see the entire screen while laying in bed, and it’s kind of far from the couch to comfortably watch TV there either (anyway, who sits on those couches and watches TV...Stayed at the TownePlace for a couple of days while doing business at the airport.  This was the first time I had stayed in a TownePlace as opposed to the Residence Inn.  Overall I found them very similar…same quality that comes with the Marriott hotels.  Good substantial “evening social” which was plenty of food to eat for dinner, and they also had a good selection of hot and cold items each morning for breakfast.  The only thing we found a little weird about the evening social was that even though they served beer and wine, they didn’t set it out where you could serve yourself (as most “evening socials” I have been to do) and they didn’t even really let you know it was available.  You had to find one of the staff and ask them for a cup of wine or a beer, and they would bring it to you one serving at a time…maybe it’s a Texas thing, I don’t know.  The rooms were adequate, with full fridge, microwave, stove, etc…just like the Residence Inn.  I have to say I didn’t like the layout of the rooms as much as Residence Inn…particularly the location of the television…they put it in a weird place where you really can’t see the entire screen while laying in bed, and it’s kind of far from the couch to comfortably watch TV there either (anyway, who sits on those couches and watches TV really).  They should really look into a better room layout.  The location is fine relative to many businesses and the airport, but be advised, there really are no food options nearby, so you either have to drive somewhere or get delivery if you don’t want to eat the food they offer for dinner.  I used the airport shuttle which was on time and the driver was friendly and helped me with my luggage.  Also all the staff were really friendly and accommodating.  Overall a good stay for the type of lodging we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the TownePlace for a couple of days while doing business at the airport.  This was the first time I had stayed in a TownePlace as opposed to the Residence Inn.  Overall I found them very similar…same quality that comes with the Marriott hotels.  Good substantial “evening social” which was plenty of food to eat for dinner, and they also had a good selection of hot and cold items each morning for breakfast.  The only thing we found a little weird about the evening social was that even though they served beer and wine, they didn’t set it out where you could serve yourself (as most “evening socials” I have been to do) and they didn’t even really let you know it was available.  You had to find one of the staff and ask them for a cup of wine or a beer, and they would bring it to you one serving at a time…maybe it’s a Texas thing, I don’t know.  The rooms were adequate, with full fridge, microwave, stove, etc…just like the Residence Inn.  I have to say I didn’t like the layout of the rooms as much as Residence Inn…particularly the location of the television…they put it in a weird place where you really can’t see the entire screen while laying in bed, and it’s kind of far from the couch to comfortably watch TV there either (anyway, who sits on those couches and watches TV...Stayed at the TownePlace for a couple of days while doing business at the airport.  This was the first time I had stayed in a TownePlace as opposed to the Residence Inn.  Overall I found them very similar…same quality that comes with the Marriott hotels.  Good substantial “evening social” which was plenty of food to eat for dinner, and they also had a good selection of hot and cold items each morning for breakfast.  The only thing we found a little weird about the evening social was that even though they served beer and wine, they didn’t set it out where you could serve yourself (as most “evening socials” I have been to do) and they didn’t even really let you know it was available.  You had to find one of the staff and ask them for a cup of wine or a beer, and they would bring it to you one serving at a time…maybe it’s a Texas thing, I don’t know.  The rooms were adequate, with full fridge, microwave, stove, etc…just like the Residence Inn.  I have to say I didn’t like the layout of the rooms as much as Residence Inn…particularly the location of the television…they put it in a weird place where you really can’t see the entire screen while laying in bed, and it’s kind of far from the couch to comfortably watch TV there either (anyway, who sits on those couches and watches TV really).  They should really look into a better room layout.  The location is fine relative to many businesses and the airport, but be advised, there really are no food options nearby, so you either have to drive somewhere or get delivery if you don’t want to eat the food they offer for dinner.  I used the airport shuttle which was on time and the driver was friendly and helped me with my luggage.  Also all the staff were really friendly and accommodating.  Overall a good stay for the type of lodging we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r155470712-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155470712</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Good hotel, great service!</t>
+  </si>
+  <si>
+    <t>I stayed recently at the Towneplace Suites in Houston near IAH. The first room I stayed in, was close to the exit, and there was some bugs that kept flying in, and my internet was kept disconnecting. I was in a room where the signal was weak. I spoke with the front desk, and they were very helpful, and connected me with Tech support, and it was determined I was in a room with a weak internet connection, and I requested a new room. Klarke, at the front desk was very professional, kind, patient and personable. She helped me with my needs and got me into a new room the very next morning. She remembered me, and my wife, and the hotel room we were staying in, and what room we were originally staying in. We requested a late check out from the hotel, and Klarke was very helpful, and was able to extend the check out. The rooms were clean, the value was great. The breakfast was good, and they even offered dinners during the week free of charge.  I would stay here again,MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed recently at the Towneplace Suites in Houston near IAH. The first room I stayed in, was close to the exit, and there was some bugs that kept flying in, and my internet was kept disconnecting. I was in a room where the signal was weak. I spoke with the front desk, and they were very helpful, and connected me with Tech support, and it was determined I was in a room with a weak internet connection, and I requested a new room. Klarke, at the front desk was very professional, kind, patient and personable. She helped me with my needs and got me into a new room the very next morning. She remembered me, and my wife, and the hotel room we were staying in, and what room we were originally staying in. We requested a late check out from the hotel, and Klarke was very helpful, and was able to extend the check out. The rooms were clean, the value was great. The breakfast was good, and they even offered dinners during the week free of charge.  I would stay here again,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r153176101-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153176101</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Average Stay; Slow Internet, Slow Shuttle</t>
+  </si>
+  <si>
+    <t>I was in town and decided to stay closer to the airport for an early flight.  Because I was so close to the airport, I decided that I would return my rental car early to make life a little easier.  Check-in was quick and the FOA confirmed that they picked up from the rental car location and asked that I call when I am ready to be picked up.  Went to grab dinner and returned the car and called for a pickup.  It is now night time and the temperature is around 45 degrees and I did not expect a long wait without a jacket.  After 30+ minutes I called the hotel again and asked where the van service was.  She put me on hold and after a few minutes she came back to inform me that the driver would be there in two - three minutes.  She did arrive soon with a van full of arriving guest who gave me strange looks for being picked up at the rental car location parking lot.  The driver never actually saw me get in the van and she just came around and closed the door.  I am sure that if I was one of those passengers I would give me strange looks as well.  I get to the room to settle in for the night.  The room is nice and clean but the toilet seat is broken - This could not be...I was in town and decided to stay closer to the airport for an early flight.  Because I was so close to the airport, I decided that I would return my rental car early to make life a little easier.  Check-in was quick and the FOA confirmed that they picked up from the rental car location and asked that I call when I am ready to be picked up.  Went to grab dinner and returned the car and called for a pickup.  It is now night time and the temperature is around 45 degrees and I did not expect a long wait without a jacket.  After 30+ minutes I called the hotel again and asked where the van service was.  She put me on hold and after a few minutes she came back to inform me that the driver would be there in two - three minutes.  She did arrive soon with a van full of arriving guest who gave me strange looks for being picked up at the rental car location parking lot.  The driver never actually saw me get in the van and she just came around and closed the door.  I am sure that if I was one of those passengers I would give me strange looks as well.  I get to the room to settle in for the night.  The room is nice and clean but the toilet seat is broken - This could not be over looked from someone cleaning the bathroom. I turn on the shower to get the hot water going and once I get in the shower and adjust the water the handle falls off and nearly falls on my foot.  The bed was not so comfortable and the fitted sheet would not stay in place pulling from the corners every move I made on the bed which left for a light seeping night.  Early rise to make an 8 AM flight and the same driver from last night is working this morning at 5 AM.  If they run the shuttle until midnight does she sleep.  The shuttle back was better than my pick up.  The driver is a very nice lady but I don't think that she speaks good English. She does not communicate very well and passengers are a little confused where she is going.  The hotel is a little off the beaten path just outside the entrance of the airport.  You can still hear the air traffic from time to time but it does not appear to be in a direct flight pattern.  Looks to be a recent built property and looks well maintained.  The Housekeepers are not flowing through with maintenance request as seen from my room.  The other problems I had was regarding pets.  No problem that this is a pet friendly hotel but I had three challenges.  Upon checking in and returning to my car a guest was outside the entrance (side door) with her dog speaking with another guest.  Either she did not pick up after the dog, dropped it or someone stepped in it and it was numerous drops of dog stuff on the side walk just outside the entrance.  The second was I was entering the building again from a trip to the car and another female guest was standing in the door way with her dog and the dog jumps up on me front paws on my upper thighs.  The dog was not a threat however everyone is not dog friendly and the guest did not apologize or say a word to me.  She completely ignored me and continued a conversation with another guest.  I walked away to enter the elevator which smells like dog urine.  I have never actually had a problem with pets in an extended stay property before.  Lastly, this hotel has the slowest internet I have every seen from a hotel - it is almost like dial up.  I was not trying to stream or perform any downloads just check email and pay a bill.  Page load time was 2-5 minutes so I finally had to pull out my hotspot.  The Front Office Staff were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>TPSHoustonAirport, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>I was in town and decided to stay closer to the airport for an early flight.  Because I was so close to the airport, I decided that I would return my rental car early to make life a little easier.  Check-in was quick and the FOA confirmed that they picked up from the rental car location and asked that I call when I am ready to be picked up.  Went to grab dinner and returned the car and called for a pickup.  It is now night time and the temperature is around 45 degrees and I did not expect a long wait without a jacket.  After 30+ minutes I called the hotel again and asked where the van service was.  She put me on hold and after a few minutes she came back to inform me that the driver would be there in two - three minutes.  She did arrive soon with a van full of arriving guest who gave me strange looks for being picked up at the rental car location parking lot.  The driver never actually saw me get in the van and she just came around and closed the door.  I am sure that if I was one of those passengers I would give me strange looks as well.  I get to the room to settle in for the night.  The room is nice and clean but the toilet seat is broken - This could not be...I was in town and decided to stay closer to the airport for an early flight.  Because I was so close to the airport, I decided that I would return my rental car early to make life a little easier.  Check-in was quick and the FOA confirmed that they picked up from the rental car location and asked that I call when I am ready to be picked up.  Went to grab dinner and returned the car and called for a pickup.  It is now night time and the temperature is around 45 degrees and I did not expect a long wait without a jacket.  After 30+ minutes I called the hotel again and asked where the van service was.  She put me on hold and after a few minutes she came back to inform me that the driver would be there in two - three minutes.  She did arrive soon with a van full of arriving guest who gave me strange looks for being picked up at the rental car location parking lot.  The driver never actually saw me get in the van and she just came around and closed the door.  I am sure that if I was one of those passengers I would give me strange looks as well.  I get to the room to settle in for the night.  The room is nice and clean but the toilet seat is broken - This could not be over looked from someone cleaning the bathroom. I turn on the shower to get the hot water going and once I get in the shower and adjust the water the handle falls off and nearly falls on my foot.  The bed was not so comfortable and the fitted sheet would not stay in place pulling from the corners every move I made on the bed which left for a light seeping night.  Early rise to make an 8 AM flight and the same driver from last night is working this morning at 5 AM.  If they run the shuttle until midnight does she sleep.  The shuttle back was better than my pick up.  The driver is a very nice lady but I don't think that she speaks good English. She does not communicate very well and passengers are a little confused where she is going.  The hotel is a little off the beaten path just outside the entrance of the airport.  You can still hear the air traffic from time to time but it does not appear to be in a direct flight pattern.  Looks to be a recent built property and looks well maintained.  The Housekeepers are not flowing through with maintenance request as seen from my room.  The other problems I had was regarding pets.  No problem that this is a pet friendly hotel but I had three challenges.  Upon checking in and returning to my car a guest was outside the entrance (side door) with her dog speaking with another guest.  Either she did not pick up after the dog, dropped it or someone stepped in it and it was numerous drops of dog stuff on the side walk just outside the entrance.  The second was I was entering the building again from a trip to the car and another female guest was standing in the door way with her dog and the dog jumps up on me front paws on my upper thighs.  The dog was not a threat however everyone is not dog friendly and the guest did not apologize or say a word to me.  She completely ignored me and continued a conversation with another guest.  I walked away to enter the elevator which smells like dog urine.  I have never actually had a problem with pets in an extended stay property before.  Lastly, this hotel has the slowest internet I have every seen from a hotel - it is almost like dial up.  I was not trying to stream or perform any downloads just check email and pay a bill.  Page load time was 2-5 minutes so I finally had to pull out my hotspot.  The Front Office Staff were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r152670220-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152670220</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Average stay with nice staff</t>
+  </si>
+  <si>
+    <t>Overall our stay was adequate as we only stayed overnight and the hotel is close to the airport. Wifi connections were below average and it was nearly impossible to get a reliable mobile connection unless your standing at the window. For longer stays I would recommend one of the Residence Inns in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall our stay was adequate as we only stayed overnight and the hotel is close to the airport. Wifi connections were below average and it was nearly impossible to get a reliable mobile connection unless your standing at the window. For longer stays I would recommend one of the Residence Inns in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r151249369-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151249369</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Nice Staff, poor wifi</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for four nights before giving up and finding other arrangements. The wifi is horrible, if you try to use the wifi between 5pm-9pm good luck I couldn't even get the email to pull up. I think they share it with the fairfield next door and its too many people on the internet for it to work. Had one problem during the stay and that was the closet leaked water on my clothes, the staff moved my room and washed the clothes that were "rained" on. The staff there is the only reason I might stay there if in the area and the internet isn't going to be needed. I didn't believe the previous posters about the internet and I should have. Nice hotel if internet is not needed!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for four nights before giving up and finding other arrangements. The wifi is horrible, if you try to use the wifi between 5pm-9pm good luck I couldn't even get the email to pull up. I think they share it with the fairfield next door and its too many people on the internet for it to work. Had one problem during the stay and that was the closet leaked water on my clothes, the staff moved my room and washed the clothes that were "rained" on. The staff there is the only reason I might stay there if in the area and the internet isn't going to be needed. I didn't believe the previous posters about the internet and I should have. Nice hotel if internet is not needed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r149773080-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149773080</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, slow Internet</t>
+  </si>
+  <si>
+    <t>In room wifi horribly slow - this is my 7th night and it has gotten progressively worse-otherwise great hotel near airport. Breakfast decent. Front desk personnel friendly. Everything nice and clean - just the frustrations of trying to get a decent Internet connection</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r148403334-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148403334</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Friendly and helpful in a pinch</t>
+  </si>
+  <si>
+    <t>We found ourselves at this hotel after the Country Inn &amp; Suites down the street didn't have a crib for our baby nephew after we reserved one and they treated us badly when we said we couldn't keep our reservation without it.We were all tired and upset and the staff here secured us two rooms, a pack and play crib and gave us a list of local area restaurants with recommendations.It was a great restful night before our flights home and we were very grateful to the kind staff.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r147817793-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147817793</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>here for 2 weeks</t>
+  </si>
+  <si>
+    <t>I had to work in Houston for 2 weeks near the airport and this hotel was perfect. Great location and close to all major highways. Right near the airport in a pretty area that has some trails for safe walking. The property is new, clean, very nice ammenities like an outdoor pool with waterfall, outdoor gas fireplace, free breakfast and sometimes even dinner. My room was reat and they stock you with Paul Mitchell products every day. I am so glad I am here if I have to be anywhere im Houston. Will come back again when I return for work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r143395212-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143395212</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Terrible rating redeemed by the GM and staff (except for inbound shuttle driver)</t>
+  </si>
+  <si>
+    <t>I give this place an average rating and not a terrible one due to the GM calling me to apologize for having to wait 65 minutes for the shuttle to the hotel from the airport. It was ridiculous after calling four (4} times and being promised the shuttle was either "10 minutes away" or "making his way to me". Without going into the specific details, the redemption was the generous offering of Marriott Rewards points followed by very friendly encounters at the front desk and server staff in the dining section during the evenings. I would return if in the area again for business.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r140924005-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140924005</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>Great stay...that almost wasn't.</t>
+  </si>
+  <si>
+    <t>After reading all the reviews, I almost canceled my reservation.  I was really nervous because of the negative reviews.  So glad I didn't listen.  My stay was great.  Room was clean, lobby was great, breakfast was good with many options.  The internet was as it should be.  I used my computer in my room on the 4th floor and in the lobby with no problems at all. Front staff was polite.  I'd choose this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>TPSHoustonAirport, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>After reading all the reviews, I almost canceled my reservation.  I was really nervous because of the negative reviews.  So glad I didn't listen.  My stay was great.  Room was clean, lobby was great, breakfast was good with many options.  The internet was as it should be.  I used my computer in my room on the 4th floor and in the lobby with no problems at all. Front staff was polite.  I'd choose this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r137950420-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137950420</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Many Many things wrong</t>
+  </si>
+  <si>
+    <t>Overall the location is nice by the airport but not to noisy. In the past week I have had 3 different bug varieties in my room. My bathtub hardware makes a screeching noise when showering and the tub stopper does not work so there is no peaceful bathing option. After all of that I would say my biggest complaint is the internet. I travel on business so working at night is necessary. The internet is so slow that this page (yes I am still a guest at this hotel) took 10 minutes to load, I timed it!! My blackberry loads faster. So I just wanted to let all business travelers know that if the internet is important do not stay here, or next door and the other marriott property because they share the same internet connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>TPSHoustonAirport, General Manager at TownePlace Suites Houston Intercontinental Airport, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Overall the location is nice by the airport but not to noisy. In the past week I have had 3 different bug varieties in my room. My bathtub hardware makes a screeching noise when showering and the tub stopper does not work so there is no peaceful bathing option. After all of that I would say my biggest complaint is the internet. I travel on business so working at night is necessary. The internet is so slow that this page (yes I am still a guest at this hotel) took 10 minutes to load, I timed it!! My blackberry loads faster. So I just wanted to let all business travelers know that if the internet is important do not stay here, or next door and the other marriott property because they share the same internet connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r120889562-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120889562</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>Don't believe the hype</t>
+  </si>
+  <si>
+    <t>One thing that I usually enjoy about Marriott is that I usually always enjoy my stay, whether it's in a Category 2 joint or a Category 4 palace. After reading the rave reviews about this particular place, I was looking forward to my business trip to Houston. The location is great; not even 10 minutes from the airport. When I arrived late at night and got to my room, I pulled the covers back and saw a huge silverfish crawling on one of the pillows. Ok, not comforting, but not a deal breaker, either. Bugs find their way into even the cleanest hotel. The next night, I went to the gym only to find that the floor was damp from a water leak and the place reeked of mildew. At dinner, I went to get a salad and the lettuce looked like it had been sitting in the sun all day. I was starting to see a pattern. The next day, breakfast consisted of eggs mixed with cut up hot dogs from the night before. Yuck. My mom used to do that trick with leftovers when I was a kid. The staff seemed complacent and did not talk much, not even to smile or say hi in the hall.I have stayed in dozens and dozens of Marriotts, and this one ranks in the bottom 5%. I don't know what the other reviewers saw in this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>One thing that I usually enjoy about Marriott is that I usually always enjoy my stay, whether it's in a Category 2 joint or a Category 4 palace. After reading the rave reviews about this particular place, I was looking forward to my business trip to Houston. The location is great; not even 10 minutes from the airport. When I arrived late at night and got to my room, I pulled the covers back and saw a huge silverfish crawling on one of the pillows. Ok, not comforting, but not a deal breaker, either. Bugs find their way into even the cleanest hotel. The next night, I went to the gym only to find that the floor was damp from a water leak and the place reeked of mildew. At dinner, I went to get a salad and the lettuce looked like it had been sitting in the sun all day. I was starting to see a pattern. The next day, breakfast consisted of eggs mixed with cut up hot dogs from the night before. Yuck. My mom used to do that trick with leftovers when I was a kid. The staff seemed complacent and did not talk much, not even to smile or say hi in the hall.I have stayed in dozens and dozens of Marriotts, and this one ranks in the bottom 5%. I don't know what the other reviewers saw in this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r117884467-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117884467</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>A good place, but hard to find in the dark.</t>
+  </si>
+  <si>
+    <t>My delayed flight from Arizona arrived after dark.  I knew the location was south from IAH along JFK Boulevard.  Sadly I passed it by southbound, and drove on at least a mile.  Once northbound again I almost missed it; the sign was minimally visible.  Other than that, this hotel experience was good.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r116814918-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116814918</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>This will be our new before vacation hotel</t>
+  </si>
+  <si>
+    <t>We stayed here the night before an early flight out of Houston.  We had purchased the Stay, Park and Fly package.  Got in later than normal and had a little trouble finding the hotel as it is set off and into a wooded area.  Front desk lady was terrific.  Room was clean and bright.  Had the shuttle set up to take us to the airport in the morning but it was full.  Front desk clerk called us a taxi, paid him and we were on our way within minutes.  Upon our arrival back home, called the shuttle and he was also there promptly with cold water and a smile.  Marriott does know how to do things right!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here the night before an early flight out of Houston.  We had purchased the Stay, Park and Fly package.  Got in later than normal and had a little trouble finding the hotel as it is set off and into a wooded area.  Front desk lady was terrific.  Room was clean and bright.  Had the shuttle set up to take us to the airport in the morning but it was full.  Front desk clerk called us a taxi, paid him and we were on our way within minutes.  Upon our arrival back home, called the shuttle and he was also there promptly with cold water and a smile.  Marriott does know how to do things right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r91719066-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>91719066</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Excellent, near the airport, free shuttle service &amp; breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is great for when you arrive in Houston.  They have a free shuttle service from the airport, or they pay for a taxi, depending on the hour.  We stopped 2 nights at the beginning and 1 night at the end of our holiday in Texas.  This hotel is spotlessly clean, big comfy beds, supersoft pillows, snowy white towels.  The breakfast consists of fruit, yogurt, muffins, bagels, waffles, toast, cereal, juices, coffee, tea, always scrambled egg, and either bacon/sausage or similar.The facilities were excellent, the staff were efficient.  Can't fault it in any way.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r84307338-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84307338</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>Comfortable, clean and close to the airport.</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after a late flight in from Dallas. Service was excellent - I has a mic up with my booking and this was resolved very promptly with no fuss whatsoever. Airport transfer was quick and efficient and Lena on the front desk is a credit to the hotel. Slight downside is the noisy AC unit in the room but it was bearable. Would definitely return...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r83125687-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83125687</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Great place, friendly staff!</t>
+  </si>
+  <si>
+    <t>We stayed here twice on our way to and from Belize. The front desk lady Lene is very charming and helpful, was is the coursesy shuttle driver, Dan.  The hotel is clean and comfortable and the breakfast buffet is pretty decent for most hotels, I'm about to go have a waffle now!  The upside of the location is it's close to the airport, the downside is there's no good shopping or nice resturaunts very close by and cabs aren't cheap here. Great place though, we'll stay again if we fly though Houston.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r76309819-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>76309819</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel as an overnight stay before flying out the next morning.  Location wise - not so great if you wanted to go into the City, but excellent if you are flying out the next morning.  The hotel is a 10 minute drive from the hotel.  The hotel offers free shuttle service as well.  Win-Win.  Minor lose.... twice I heard an airplane flying overhead.Lena at the front desk was very helpful when I checked it.  Very pleasant lady.  She quickly checked me and told me about the welcome home happy hour, as well as the breakfast in the morning.  Since it was Texas in August, there wasn't much desire to go walking the grounds, but on the drive the next morning to the airport, the surrounding area looked nice.  Would've been a good place for a nice walk. Lots of trees and shade...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel as an overnight stay before flying out the next morning.  Location wise - not so great if you wanted to go into the City, but excellent if you are flying out the next morning.  The hotel is a 10 minute drive from the hotel.  The hotel offers free shuttle service as well.  Win-Win.  Minor lose.... twice I heard an airplane flying overhead.Lena at the front desk was very helpful when I checked it.  Very pleasant lady.  She quickly checked me and told me about the welcome home happy hour, as well as the breakfast in the morning.  Since it was Texas in August, there wasn't much desire to go walking the grounds, but on the drive the next morning to the airport, the surrounding area looked nice.  Would've been a good place for a nice walk. Lots of trees and shade...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r68414155-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>68414155</t>
+  </si>
+  <si>
+    <t>06/23/2010</t>
+  </si>
+  <si>
+    <t>very close to IAH and clean</t>
+  </si>
+  <si>
+    <t>One night stay early flight out of IAH.  Didn't want to stay downtown even though the event I was there.  The drive to downtown was easy even during commute.  Hotel is still fairly new.  Late checkin and Lena (clerk) suggested returning the rental car and taking the hotel shuttle in the morning.  Took the suggestion, both PM and AM drivers very courteous.  Asked about a early breakfast snack for a 530am ride, clerk said no problem.  I checkout and the clerk says go see the man at the food area (breakfast does not start until 630am).  Coffee was out, I asked for fruit and the guy brought out a bowl of apples.  "You got anything else?"  the delivery guy was making a large delivery and the employee said he had to check the delivery.  Everytime they opened the door to the kitchen, I saw two cereal dispensers full of cereal.  Poor mark on service, but at least the front desk people and shuttle drivers were cheeeful.  There seems to be no supermarket in the immediate area.  Gym was small, but newer cardio stuff.  Water cooler was empty as I took the last drop of water.  Four out of five stars.  Oh heard the first plane at 500am, very loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>One night stay early flight out of IAH.  Didn't want to stay downtown even though the event I was there.  The drive to downtown was easy even during commute.  Hotel is still fairly new.  Late checkin and Lena (clerk) suggested returning the rental car and taking the hotel shuttle in the morning.  Took the suggestion, both PM and AM drivers very courteous.  Asked about a early breakfast snack for a 530am ride, clerk said no problem.  I checkout and the clerk says go see the man at the food area (breakfast does not start until 630am).  Coffee was out, I asked for fruit and the guy brought out a bowl of apples.  "You got anything else?"  the delivery guy was making a large delivery and the employee said he had to check the delivery.  Everytime they opened the door to the kitchen, I saw two cereal dispensers full of cereal.  Poor mark on service, but at least the front desk people and shuttle drivers were cheeeful.  There seems to be no supermarket in the immediate area.  Gym was small, but newer cardio stuff.  Water cooler was empty as I took the last drop of water.  Four out of five stars.  Oh heard the first plane at 500am, very loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r65175387-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>65175387</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel, serene surrounding, very close to IAH airport</t>
+  </si>
+  <si>
+    <t>I love towneplace suites by marriott for their complimentary breakfast. When I walked into this new hotel, I was surprisingly shocked to see its beautiful lobby.Spacious, vibrant colored interior public area is unusual - love the room &amp; wireless Wi-Fi.Evening light meals and the braekfast are more that the usual buffet I have seen, these are much better. Thanks for the shuttle to-and-from the Houston Intercontinental Airport. My company will continue to use this hotel for any future trips that bring us to IAH area.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r49584344-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49584344</t>
+  </si>
+  <si>
+    <t>11/19/2009</t>
+  </si>
+  <si>
+    <t>Brand New Property!</t>
+  </si>
+  <si>
+    <t>Spent one night.  Brand new, extra clean...felt like I was the first person to stay in my room.  Features a full-size fridge and a dishwasher.  Very nice, glad I found it (through TripAdvisor, of course!).  Very friendly staff.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r49466745-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49466745</t>
+  </si>
+  <si>
+    <t>11/17/2009</t>
+  </si>
+  <si>
+    <t>An Absolutely Perfect Place To Stay !!</t>
+  </si>
+  <si>
+    <t>I am a VERY PICKY PERSON ........so, I tend to look for something to be wrong.  I could NOT find anything wrong with this hotel.  From the moment we arrived, it was a perfect choice.  The hotel is clean, clean, clean.....hotel staff is wonderful......breakfast is delicious...and is kept spotlessly clean.  The gentleman at the front desk even took the time to draw us a map directing us to a great restaurant !!  The staff is superb !  The bed linens were delightful.....the mattress was soft.  Another really nice surprise.....the bedside phone has a very long cord on it that will allow you to take the phone into the bathroom with you.  The vanity was the perfect place to put the phone.  Each room is equipped with everything you need in their kitchen area.......great refrigerator !   My husband was thrilled with the new HDTV......reception was superb...........and the TV is located so that you can see it perfectly from either the bed or the sitting area.   The greatest perk was that we could arrange to leave our car while we flew to a wedding.  The shuttle left promptly as scheduled the night before.  Upon our return, I called the hotel and they came to pick us up in their nice shuttle.  The driver deserved a huge tip for the professional manner in which he worked.  If you are looking for a fantastic hotel.....stay here.  You will not be disappointed...........even if you are...I am a VERY PICKY PERSON ........so, I tend to look for something to be wrong.  I could NOT find anything wrong with this hotel.  From the moment we arrived, it was a perfect choice.  The hotel is clean, clean, clean.....hotel staff is wonderful......breakfast is delicious...and is kept spotlessly clean.  The gentleman at the front desk even took the time to draw us a map directing us to a great restaurant !!  The staff is superb !  The bed linens were delightful.....the mattress was soft.  Another really nice surprise.....the bedside phone has a very long cord on it that will allow you to take the phone into the bathroom with you.  The vanity was the perfect place to put the phone.  Each room is equipped with everything you need in their kitchen area.......great refrigerator !   My husband was thrilled with the new HDTV......reception was superb...........and the TV is located so that you can see it perfectly from either the bed or the sitting area.   The greatest perk was that we could arrange to leave our car while we flew to a wedding.  The shuttle left promptly as scheduled the night before.  Upon our return, I called the hotel and they came to pick us up in their nice shuttle.  The driver deserved a huge tip for the professional manner in which he worked.  If you are looking for a fantastic hotel.....stay here.  You will not be disappointed...........even if you are VERY PICKY like me.    One warning that has nothing to do with the hotel.............. if you are trying to find the hotel.......don't depend on the directions from Mapquest..........it is wrong.   We were driving from Austin to Houston Intercontinental area...........it tells you to turn on a street called Heathrow..........that is wrong..........you turn on John F Kennedy right next to the Holiday Inn Express.   Be careful...........we drove around for an hour tryng to find the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a VERY PICKY PERSON ........so, I tend to look for something to be wrong.  I could NOT find anything wrong with this hotel.  From the moment we arrived, it was a perfect choice.  The hotel is clean, clean, clean.....hotel staff is wonderful......breakfast is delicious...and is kept spotlessly clean.  The gentleman at the front desk even took the time to draw us a map directing us to a great restaurant !!  The staff is superb !  The bed linens were delightful.....the mattress was soft.  Another really nice surprise.....the bedside phone has a very long cord on it that will allow you to take the phone into the bathroom with you.  The vanity was the perfect place to put the phone.  Each room is equipped with everything you need in their kitchen area.......great refrigerator !   My husband was thrilled with the new HDTV......reception was superb...........and the TV is located so that you can see it perfectly from either the bed or the sitting area.   The greatest perk was that we could arrange to leave our car while we flew to a wedding.  The shuttle left promptly as scheduled the night before.  Upon our return, I called the hotel and they came to pick us up in their nice shuttle.  The driver deserved a huge tip for the professional manner in which he worked.  If you are looking for a fantastic hotel.....stay here.  You will not be disappointed...........even if you are...I am a VERY PICKY PERSON ........so, I tend to look for something to be wrong.  I could NOT find anything wrong with this hotel.  From the moment we arrived, it was a perfect choice.  The hotel is clean, clean, clean.....hotel staff is wonderful......breakfast is delicious...and is kept spotlessly clean.  The gentleman at the front desk even took the time to draw us a map directing us to a great restaurant !!  The staff is superb !  The bed linens were delightful.....the mattress was soft.  Another really nice surprise.....the bedside phone has a very long cord on it that will allow you to take the phone into the bathroom with you.  The vanity was the perfect place to put the phone.  Each room is equipped with everything you need in their kitchen area.......great refrigerator !   My husband was thrilled with the new HDTV......reception was superb...........and the TV is located so that you can see it perfectly from either the bed or the sitting area.   The greatest perk was that we could arrange to leave our car while we flew to a wedding.  The shuttle left promptly as scheduled the night before.  Upon our return, I called the hotel and they came to pick us up in their nice shuttle.  The driver deserved a huge tip for the professional manner in which he worked.  If you are looking for a fantastic hotel.....stay here.  You will not be disappointed...........even if you are VERY PICKY like me.    One warning that has nothing to do with the hotel.............. if you are trying to find the hotel.......don't depend on the directions from Mapquest..........it is wrong.   We were driving from Austin to Houston Intercontinental area...........it tells you to turn on a street called Heathrow..........that is wrong..........you turn on John F Kennedy right next to the Holiday Inn Express.   Be careful...........we drove around for an hour tryng to find the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1416435-r39403044-TownePlace_Suites_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>39403044</t>
+  </si>
+  <si>
+    <t>08/31/2009</t>
+  </si>
+  <si>
+    <t>almost no complaints</t>
+  </si>
+  <si>
+    <t>We got a good weekend rate for a hotel with a nice pool area, decent fitness and complimentary breakfast. Above all, the place was close to IAH but the setting was more than quiet in a more than nice neighbourhood. Disadvantage: nothing to eat or drink within walking distance. Rooms are comfy and the service was good. My  only remark concerns wat we found under the bed. In fact wat was it, because most of wat we saw were unidentified objects. I think this zone is simply forgotten and this should be rectified in the cleaning procedure. Still, we had a nice stay and would certainly return.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +3155,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +3187,7238 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>133</v>
+      </c>
+      <c r="X27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>293</v>
+      </c>
+      <c r="X30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>339</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>341</v>
+      </c>
+      <c r="L36" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>353</v>
+      </c>
+      <c r="X37" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>360</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>361</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>362</v>
+      </c>
+      <c r="X38" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>365</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J39" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>370</v>
+      </c>
+      <c r="X39" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>374</v>
+      </c>
+      <c r="J40" t="s">
+        <v>375</v>
+      </c>
+      <c r="K40" t="s">
+        <v>376</v>
+      </c>
+      <c r="L40" t="s">
+        <v>377</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>378</v>
+      </c>
+      <c r="X40" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>386</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" t="s">
+        <v>392</v>
+      </c>
+      <c r="K42" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>387</v>
+      </c>
+      <c r="X42" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>386</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>401</v>
+      </c>
+      <c r="X43" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" t="s">
+        <v>407</v>
+      </c>
+      <c r="L44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>386</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>409</v>
+      </c>
+      <c r="X44" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>413</v>
+      </c>
+      <c r="J45" t="s">
+        <v>414</v>
+      </c>
+      <c r="K45" t="s">
+        <v>415</v>
+      </c>
+      <c r="L45" t="s">
+        <v>416</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>417</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>418</v>
+      </c>
+      <c r="X45" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>421</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>422</v>
+      </c>
+      <c r="J46" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>427</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>428</v>
+      </c>
+      <c r="J47" t="s">
+        <v>429</v>
+      </c>
+      <c r="K47" t="s">
+        <v>430</v>
+      </c>
+      <c r="L47" t="s">
+        <v>431</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>432</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>433</v>
+      </c>
+      <c r="X47" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>437</v>
+      </c>
+      <c r="J48" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" t="s">
+        <v>439</v>
+      </c>
+      <c r="L48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>441</v>
+      </c>
+      <c r="X48" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>444</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>445</v>
+      </c>
+      <c r="J49" t="s">
+        <v>446</v>
+      </c>
+      <c r="K49" t="s">
+        <v>447</v>
+      </c>
+      <c r="L49" t="s">
+        <v>448</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>432</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>449</v>
+      </c>
+      <c r="X49" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>453</v>
+      </c>
+      <c r="J50" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50" t="s">
+        <v>456</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>432</v>
+      </c>
+      <c r="O50" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>457</v>
+      </c>
+      <c r="X50" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>461</v>
+      </c>
+      <c r="J51" t="s">
+        <v>462</v>
+      </c>
+      <c r="K51" t="s">
+        <v>463</v>
+      </c>
+      <c r="L51" t="s">
+        <v>464</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>465</v>
+      </c>
+      <c r="X51" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>468</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" t="s">
+        <v>470</v>
+      </c>
+      <c r="K52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s">
+        <v>472</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>473</v>
+      </c>
+      <c r="X52" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>476</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>477</v>
+      </c>
+      <c r="J53" t="s">
+        <v>478</v>
+      </c>
+      <c r="K53" t="s">
+        <v>479</v>
+      </c>
+      <c r="L53" t="s">
+        <v>480</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>481</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>482</v>
+      </c>
+      <c r="X53" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" t="s">
+        <v>487</v>
+      </c>
+      <c r="K54" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>481</v>
+      </c>
+      <c r="O54" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>490</v>
+      </c>
+      <c r="X54" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>493</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>494</v>
+      </c>
+      <c r="J55" t="s">
+        <v>495</v>
+      </c>
+      <c r="K55" t="s">
+        <v>496</v>
+      </c>
+      <c r="L55" t="s">
+        <v>497</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>490</v>
+      </c>
+      <c r="X55" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>499</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>500</v>
+      </c>
+      <c r="J56" t="s">
+        <v>501</v>
+      </c>
+      <c r="K56" t="s">
+        <v>502</v>
+      </c>
+      <c r="L56" t="s">
+        <v>503</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>504</v>
+      </c>
+      <c r="O56" t="s">
+        <v>505</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>506</v>
+      </c>
+      <c r="X56" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>510</v>
+      </c>
+      <c r="J57" t="s">
+        <v>511</v>
+      </c>
+      <c r="K57" t="s">
+        <v>512</v>
+      </c>
+      <c r="L57" t="s">
+        <v>513</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>514</v>
+      </c>
+      <c r="X57" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>517</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>518</v>
+      </c>
+      <c r="J58" t="s">
+        <v>519</v>
+      </c>
+      <c r="K58" t="s">
+        <v>520</v>
+      </c>
+      <c r="L58" t="s">
+        <v>521</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" t="s">
+        <v>505</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>514</v>
+      </c>
+      <c r="X58" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>523</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>524</v>
+      </c>
+      <c r="J59" t="s">
+        <v>525</v>
+      </c>
+      <c r="K59" t="s">
+        <v>526</v>
+      </c>
+      <c r="L59" t="s">
+        <v>527</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>504</v>
+      </c>
+      <c r="O59" t="s">
+        <v>505</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>528</v>
+      </c>
+      <c r="X59" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>531</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" t="s">
+        <v>533</v>
+      </c>
+      <c r="K60" t="s">
+        <v>534</v>
+      </c>
+      <c r="L60" t="s">
+        <v>535</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>536</v>
+      </c>
+      <c r="O60" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>528</v>
+      </c>
+      <c r="X60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>538</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>539</v>
+      </c>
+      <c r="J61" t="s">
+        <v>540</v>
+      </c>
+      <c r="K61" t="s">
+        <v>541</v>
+      </c>
+      <c r="L61" t="s">
+        <v>542</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>536</v>
+      </c>
+      <c r="O61" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>543</v>
+      </c>
+      <c r="X61" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>546</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>547</v>
+      </c>
+      <c r="J62" t="s">
+        <v>548</v>
+      </c>
+      <c r="K62" t="s">
+        <v>549</v>
+      </c>
+      <c r="L62" t="s">
+        <v>550</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>551</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>552</v>
+      </c>
+      <c r="X62" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>555</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>556</v>
+      </c>
+      <c r="J63" t="s">
+        <v>557</v>
+      </c>
+      <c r="K63" t="s">
+        <v>558</v>
+      </c>
+      <c r="L63" t="s">
+        <v>559</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>560</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>561</v>
+      </c>
+      <c r="X63" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>564</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>565</v>
+      </c>
+      <c r="J64" t="s">
+        <v>566</v>
+      </c>
+      <c r="K64" t="s">
+        <v>567</v>
+      </c>
+      <c r="L64" t="s">
+        <v>568</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>551</v>
+      </c>
+      <c r="O64" t="s">
+        <v>141</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>569</v>
+      </c>
+      <c r="X64" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>572</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>573</v>
+      </c>
+      <c r="J65" t="s">
+        <v>574</v>
+      </c>
+      <c r="K65" t="s">
+        <v>575</v>
+      </c>
+      <c r="L65" t="s">
+        <v>576</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>577</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>578</v>
+      </c>
+      <c r="X65" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>581</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>582</v>
+      </c>
+      <c r="J66" t="s">
+        <v>574</v>
+      </c>
+      <c r="K66" t="s">
+        <v>583</v>
+      </c>
+      <c r="L66" t="s">
+        <v>584</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>577</v>
+      </c>
+      <c r="O66" t="s">
+        <v>141</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>578</v>
+      </c>
+      <c r="X66" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>586</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>587</v>
+      </c>
+      <c r="J67" t="s">
+        <v>588</v>
+      </c>
+      <c r="K67" t="s">
+        <v>589</v>
+      </c>
+      <c r="L67" t="s">
+        <v>590</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>591</v>
+      </c>
+      <c r="O67" t="s">
+        <v>505</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>592</v>
+      </c>
+      <c r="X67" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>595</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>596</v>
+      </c>
+      <c r="J68" t="s">
+        <v>597</v>
+      </c>
+      <c r="K68" t="s">
+        <v>598</v>
+      </c>
+      <c r="L68" t="s">
+        <v>599</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>600</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>601</v>
+      </c>
+      <c r="X68" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>604</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>605</v>
+      </c>
+      <c r="J69" t="s">
+        <v>597</v>
+      </c>
+      <c r="K69" t="s">
+        <v>606</v>
+      </c>
+      <c r="L69" t="s">
+        <v>607</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>600</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>601</v>
+      </c>
+      <c r="X69" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>609</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>610</v>
+      </c>
+      <c r="J70" t="s">
+        <v>611</v>
+      </c>
+      <c r="K70" t="s">
+        <v>612</v>
+      </c>
+      <c r="L70" t="s">
+        <v>613</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>614</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>615</v>
+      </c>
+      <c r="X70" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>618</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>619</v>
+      </c>
+      <c r="J71" t="s">
+        <v>620</v>
+      </c>
+      <c r="K71" t="s">
+        <v>621</v>
+      </c>
+      <c r="L71" t="s">
+        <v>622</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>623</v>
+      </c>
+      <c r="O71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>624</v>
+      </c>
+      <c r="X71" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>627</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>628</v>
+      </c>
+      <c r="J72" t="s">
+        <v>629</v>
+      </c>
+      <c r="K72" t="s">
+        <v>630</v>
+      </c>
+      <c r="L72" t="s">
+        <v>631</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>632</v>
+      </c>
+      <c r="X72" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>635</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>636</v>
+      </c>
+      <c r="J73" t="s">
+        <v>637</v>
+      </c>
+      <c r="K73" t="s">
+        <v>638</v>
+      </c>
+      <c r="L73" t="s">
+        <v>639</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>623</v>
+      </c>
+      <c r="O73" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>640</v>
+      </c>
+      <c r="X73" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>643</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>644</v>
+      </c>
+      <c r="J74" t="s">
+        <v>645</v>
+      </c>
+      <c r="K74" t="s">
+        <v>646</v>
+      </c>
+      <c r="L74" t="s">
+        <v>647</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>648</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>649</v>
+      </c>
+      <c r="X74" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>653</v>
+      </c>
+      <c r="J75" t="s">
+        <v>645</v>
+      </c>
+      <c r="K75" t="s">
+        <v>654</v>
+      </c>
+      <c r="L75" t="s">
+        <v>655</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>648</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>649</v>
+      </c>
+      <c r="X75" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>657</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>658</v>
+      </c>
+      <c r="J76" t="s">
+        <v>659</v>
+      </c>
+      <c r="K76" t="s">
+        <v>660</v>
+      </c>
+      <c r="L76" t="s">
+        <v>661</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>648</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>649</v>
+      </c>
+      <c r="X76" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>663</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>664</v>
+      </c>
+      <c r="J77" t="s">
+        <v>665</v>
+      </c>
+      <c r="K77" t="s">
+        <v>666</v>
+      </c>
+      <c r="L77" t="s">
+        <v>667</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>668</v>
+      </c>
+      <c r="O77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>669</v>
+      </c>
+      <c r="X77" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>672</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>673</v>
+      </c>
+      <c r="J78" t="s">
+        <v>674</v>
+      </c>
+      <c r="K78" t="s">
+        <v>675</v>
+      </c>
+      <c r="L78" t="s">
+        <v>676</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>669</v>
+      </c>
+      <c r="X78" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>678</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>679</v>
+      </c>
+      <c r="J79" t="s">
+        <v>680</v>
+      </c>
+      <c r="K79" t="s">
+        <v>681</v>
+      </c>
+      <c r="L79" t="s">
+        <v>682</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>668</v>
+      </c>
+      <c r="O79" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>683</v>
+      </c>
+      <c r="X79" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>686</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>687</v>
+      </c>
+      <c r="J80" t="s">
+        <v>688</v>
+      </c>
+      <c r="K80" t="s">
+        <v>689</v>
+      </c>
+      <c r="L80" t="s">
+        <v>690</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>691</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>692</v>
+      </c>
+      <c r="X80" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>695</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>696</v>
+      </c>
+      <c r="J81" t="s">
+        <v>697</v>
+      </c>
+      <c r="K81" t="s">
+        <v>698</v>
+      </c>
+      <c r="L81" t="s">
+        <v>699</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>691</v>
+      </c>
+      <c r="O81" t="s">
+        <v>70</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>692</v>
+      </c>
+      <c r="X81" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>701</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>702</v>
+      </c>
+      <c r="J82" t="s">
+        <v>703</v>
+      </c>
+      <c r="K82" t="s">
+        <v>704</v>
+      </c>
+      <c r="L82" t="s">
+        <v>705</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>691</v>
+      </c>
+      <c r="O82" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>706</v>
+      </c>
+      <c r="X82" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>709</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>710</v>
+      </c>
+      <c r="J83" t="s">
+        <v>711</v>
+      </c>
+      <c r="K83" t="s">
+        <v>712</v>
+      </c>
+      <c r="L83" t="s">
+        <v>713</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>714</v>
+      </c>
+      <c r="O83" t="s">
+        <v>505</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>715</v>
+      </c>
+      <c r="X83" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>718</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>719</v>
+      </c>
+      <c r="J84" t="s">
+        <v>720</v>
+      </c>
+      <c r="K84" t="s">
+        <v>721</v>
+      </c>
+      <c r="L84" t="s">
+        <v>722</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>723</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>724</v>
+      </c>
+      <c r="X84" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>727</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>728</v>
+      </c>
+      <c r="J85" t="s">
+        <v>729</v>
+      </c>
+      <c r="K85" t="s">
+        <v>730</v>
+      </c>
+      <c r="L85" t="s">
+        <v>731</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>732</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>733</v>
+      </c>
+      <c r="X85" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>736</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>737</v>
+      </c>
+      <c r="J86" t="s">
+        <v>738</v>
+      </c>
+      <c r="K86" t="s">
+        <v>739</v>
+      </c>
+      <c r="L86" t="s">
+        <v>740</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>741</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>742</v>
+      </c>
+      <c r="X86" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>745</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>746</v>
+      </c>
+      <c r="J87" t="s">
+        <v>747</v>
+      </c>
+      <c r="K87" t="s">
+        <v>748</v>
+      </c>
+      <c r="L87" t="s">
+        <v>749</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>750</v>
+      </c>
+      <c r="O87" t="s">
+        <v>97</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>742</v>
+      </c>
+      <c r="X87" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>752</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>753</v>
+      </c>
+      <c r="J88" t="s">
+        <v>754</v>
+      </c>
+      <c r="K88" t="s">
+        <v>755</v>
+      </c>
+      <c r="L88" t="s">
+        <v>756</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>741</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>758</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>759</v>
+      </c>
+      <c r="J89" t="s">
+        <v>760</v>
+      </c>
+      <c r="K89" t="s">
+        <v>761</v>
+      </c>
+      <c r="L89" t="s">
+        <v>762</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>763</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>764</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>765</v>
+      </c>
+      <c r="J90" t="s">
+        <v>766</v>
+      </c>
+      <c r="K90" t="s">
+        <v>767</v>
+      </c>
+      <c r="L90" t="s">
+        <v>768</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>769</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>771</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>772</v>
+      </c>
+      <c r="J91" t="s">
+        <v>773</v>
+      </c>
+      <c r="K91" t="s">
+        <v>774</v>
+      </c>
+      <c r="L91" t="s">
+        <v>775</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>769</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>777</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>778</v>
+      </c>
+      <c r="J92" t="s">
+        <v>779</v>
+      </c>
+      <c r="K92" t="s">
+        <v>780</v>
+      </c>
+      <c r="L92" t="s">
+        <v>781</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>782</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>783</v>
+      </c>
+      <c r="X92" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>786</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>787</v>
+      </c>
+      <c r="J93" t="s">
+        <v>788</v>
+      </c>
+      <c r="K93" t="s">
+        <v>789</v>
+      </c>
+      <c r="L93" t="s">
+        <v>790</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>782</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>783</v>
+      </c>
+      <c r="X93" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>792</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>793</v>
+      </c>
+      <c r="J94" t="s">
+        <v>794</v>
+      </c>
+      <c r="K94" t="s">
+        <v>795</v>
+      </c>
+      <c r="L94" t="s">
+        <v>796</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>797</v>
+      </c>
+      <c r="O94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>799</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>800</v>
+      </c>
+      <c r="J95" t="s">
+        <v>801</v>
+      </c>
+      <c r="K95" t="s">
+        <v>802</v>
+      </c>
+      <c r="L95" t="s">
+        <v>803</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>804</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>805</v>
+      </c>
+      <c r="J96" t="s">
+        <v>806</v>
+      </c>
+      <c r="K96" t="s">
+        <v>807</v>
+      </c>
+      <c r="L96" t="s">
+        <v>808</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>809</v>
+      </c>
+      <c r="O96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>810</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>811</v>
+      </c>
+      <c r="J97" t="s">
+        <v>812</v>
+      </c>
+      <c r="K97" t="s">
+        <v>813</v>
+      </c>
+      <c r="L97" t="s">
+        <v>814</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>809</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>815</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>816</v>
+      </c>
+      <c r="J98" t="s">
+        <v>817</v>
+      </c>
+      <c r="K98" t="s">
+        <v>818</v>
+      </c>
+      <c r="L98" t="s">
+        <v>819</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>820</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>821</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>822</v>
+      </c>
+      <c r="J99" t="s">
+        <v>823</v>
+      </c>
+      <c r="K99" t="s">
+        <v>824</v>
+      </c>
+      <c r="L99" t="s">
+        <v>825</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>826</v>
+      </c>
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>827</v>
+      </c>
+      <c r="X99" t="s">
+        <v>828</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>830</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>831</v>
+      </c>
+      <c r="J100" t="s">
+        <v>832</v>
+      </c>
+      <c r="K100" t="s">
+        <v>833</v>
+      </c>
+      <c r="L100" t="s">
+        <v>834</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>835</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>836</v>
+      </c>
+      <c r="X100" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>839</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>840</v>
+      </c>
+      <c r="J101" t="s">
+        <v>841</v>
+      </c>
+      <c r="K101" t="s">
+        <v>842</v>
+      </c>
+      <c r="L101" t="s">
+        <v>843</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>845</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>846</v>
+      </c>
+      <c r="J102" t="s">
+        <v>847</v>
+      </c>
+      <c r="K102" t="s">
+        <v>848</v>
+      </c>
+      <c r="L102" t="s">
+        <v>849</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>850</v>
+      </c>
+      <c r="O102" t="s">
+        <v>61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>851</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>852</v>
+      </c>
+      <c r="J103" t="s">
+        <v>853</v>
+      </c>
+      <c r="K103" t="s">
+        <v>854</v>
+      </c>
+      <c r="L103" t="s">
+        <v>855</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>850</v>
+      </c>
+      <c r="O103" t="s">
+        <v>70</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>857</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>858</v>
+      </c>
+      <c r="J104" t="s">
+        <v>859</v>
+      </c>
+      <c r="K104" t="s">
+        <v>860</v>
+      </c>
+      <c r="L104" t="s">
+        <v>861</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>862</v>
+      </c>
+      <c r="O104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>863</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>864</v>
+      </c>
+      <c r="J105" t="s">
+        <v>865</v>
+      </c>
+      <c r="K105" t="s">
+        <v>866</v>
+      </c>
+      <c r="L105" t="s">
+        <v>867</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>868</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>869</v>
+      </c>
+      <c r="J106" t="s">
+        <v>870</v>
+      </c>
+      <c r="K106" t="s">
+        <v>871</v>
+      </c>
+      <c r="L106" t="s">
+        <v>872</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>873</v>
+      </c>
+      <c r="O106" t="s">
+        <v>141</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>874</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>875</v>
+      </c>
+      <c r="J107" t="s">
+        <v>876</v>
+      </c>
+      <c r="K107" t="s">
+        <v>877</v>
+      </c>
+      <c r="L107" t="s">
+        <v>878</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>879</v>
+      </c>
+      <c r="O107" t="s">
+        <v>97</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>881</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>882</v>
+      </c>
+      <c r="J108" t="s">
+        <v>883</v>
+      </c>
+      <c r="K108" t="s">
+        <v>884</v>
+      </c>
+      <c r="L108" t="s">
+        <v>885</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>886</v>
+      </c>
+      <c r="O108" t="s">
+        <v>97</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>888</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>889</v>
+      </c>
+      <c r="J109" t="s">
+        <v>890</v>
+      </c>
+      <c r="K109" t="s">
+        <v>891</v>
+      </c>
+      <c r="L109" t="s">
+        <v>892</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>893</v>
+      </c>
+      <c r="O109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>894</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>895</v>
+      </c>
+      <c r="J110" t="s">
+        <v>896</v>
+      </c>
+      <c r="K110" t="s">
+        <v>897</v>
+      </c>
+      <c r="L110" t="s">
+        <v>898</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>899</v>
+      </c>
+      <c r="O110" t="s">
+        <v>61</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>900</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>901</v>
+      </c>
+      <c r="J111" t="s">
+        <v>902</v>
+      </c>
+      <c r="K111" t="s">
+        <v>903</v>
+      </c>
+      <c r="L111" t="s">
+        <v>904</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>899</v>
+      </c>
+      <c r="O111" t="s">
+        <v>141</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59591</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>906</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>907</v>
+      </c>
+      <c r="J112" t="s">
+        <v>908</v>
+      </c>
+      <c r="K112" t="s">
+        <v>909</v>
+      </c>
+      <c r="L112" t="s">
+        <v>910</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>911</v>
+      </c>
+      <c r="O112" t="s">
+        <v>141</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
